--- a/Project2/investigation.xlsx
+++ b/Project2/investigation.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="304">
   <si>
     <t>The correct answer is: 5</t>
   </si>
@@ -781,6 +783,159 @@
   </si>
   <si>
     <t>***** shapes the same Score increased******</t>
+  </si>
+  <si>
+    <t>things to do with a hashmap:</t>
+  </si>
+  <si>
+    <t>things to do with a list:</t>
+  </si>
+  <si>
+    <t>entrySet</t>
+  </si>
+  <si>
+    <t>keyset</t>
+  </si>
+  <si>
+    <t>returns</t>
+  </si>
+  <si>
+    <t>Set&lt;Entry&lt;String,String&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Set&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>things to do with a collection</t>
+  </si>
+  <si>
+    <t>Things to do with a set</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List in Java provides ordered and indexed collection which may contain duplicates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Set provides an unordered collection of unique objects</t>
+  </si>
+  <si>
+    <t>Map provides a data structure based on key value pair and hashing</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>LinkedHashSet</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>Duplicate Objects</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Nulls</t>
+  </si>
+  <si>
+    <t>popular implementations</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>hashMap,
+Hashtable,
+TreeMap</t>
+  </si>
+  <si>
+    <t>HashSet,
+TreeSet,
+LinkedHashSet</t>
+  </si>
+  <si>
+    <t>ArrayList,
+LinkedList,
+Vector</t>
+  </si>
+  <si>
+    <t>not allowed</t>
+  </si>
+  <si>
+    <t>allowed</t>
+  </si>
+  <si>
+    <t>unique keys, non-unique values</t>
+  </si>
+  <si>
+    <t>maintains insertion order</t>
+  </si>
+  <si>
+    <t>unordered collection (LinkedHashSet and SortedSet maintains order)</t>
+  </si>
+  <si>
+    <t>not maintained (except in TreeMap)</t>
+  </si>
+  <si>
+    <t>just one allowed</t>
+  </si>
+  <si>
+    <t>null values, one null key. (Hashtable doesn't allow null key or values</t>
+  </si>
+  <si>
+    <t>Things to do with array</t>
+  </si>
+  <si>
+    <t>for(member:members)</t>
+  </si>
+  <si>
+    <t>for(Entry:EntrySet)</t>
+  </si>
+  <si>
+    <t>5=&gt;6</t>
+  </si>
+  <si>
+    <t>6=&gt;8</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>tf-angle=270</t>
+  </si>
+  <si>
+    <t>tf-angle=-90</t>
+  </si>
+  <si>
+    <t>tf-angle=0</t>
+  </si>
+  <si>
+    <t>tf-angle : 270 - tf-angle : -90</t>
+  </si>
+  <si>
+    <t>tf-angle : 270 - tf-angle : 0</t>
+  </si>
+  <si>
+    <t>tf-angle : 270 - tf-angle : null</t>
+  </si>
+  <si>
+    <t>tf-angle : 270 - tf-angle : 270</t>
+  </si>
+  <si>
+    <t>tf-angle=90</t>
   </si>
 </sst>
 </file>
@@ -796,18 +951,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -876,7 +1025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -884,12 +1033,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -901,7 +1066,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5552,28 +5722,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z425"/>
+  <dimension ref="A1:AM99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M173" sqref="M173"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AK1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Y2" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AI2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5586,11 +5759,26 @@
       <c r="O3" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5600,11 +5788,23 @@
       <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5614,11 +5814,23 @@
       <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="X5" t="s">
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -5628,11 +5840,23 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="R6" t="s">
+        <v>208</v>
+      </c>
+      <c r="V6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -5642,11 +5866,23 @@
       <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="R7" t="s">
+        <v>210</v>
+      </c>
+      <c r="V7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5656,11 +5892,23 @@
       <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="R8" t="s">
+        <v>205</v>
+      </c>
+      <c r="V8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -5670,11 +5918,23 @@
       <c r="I9" t="s">
         <v>220</v>
       </c>
-      <c r="X9" t="s">
+      <c r="R9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -5684,11 +5944,20 @@
       <c r="I10" t="s">
         <v>221</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="R10" t="s">
+        <v>206</v>
+      </c>
+      <c r="V10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5698,71 +5967,101 @@
       <c r="I11" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="R11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>222</v>
       </c>
-      <c r="X13">
+      <c r="AA13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>223</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AA14" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>254</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AM16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="X17">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AK17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Y18" t="s">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Z19" t="s">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Z20" t="s">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -5775,11 +6074,23 @@
       <c r="O21" t="s">
         <v>249</v>
       </c>
-      <c r="X21">
+      <c r="R21" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -5789,11 +6100,20 @@
       <c r="I22" t="s">
         <v>32</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="R22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -5803,11 +6123,20 @@
       <c r="I23" t="s">
         <v>33</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="R23" t="s">
+        <v>10</v>
+      </c>
+      <c r="V23" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -5817,11 +6146,20 @@
       <c r="I24" t="s">
         <v>32</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="R24" t="s">
+        <v>208</v>
+      </c>
+      <c r="V24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM24" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>205</v>
       </c>
@@ -5831,11 +6169,20 @@
       <c r="I25" t="s">
         <v>34</v>
       </c>
-      <c r="X25">
+      <c r="R25" t="s">
+        <v>210</v>
+      </c>
+      <c r="V25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -5845,11 +6192,20 @@
       <c r="I26" t="s">
         <v>32</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="R26" t="s">
+        <v>205</v>
+      </c>
+      <c r="V26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL26" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -5859,11 +6215,20 @@
       <c r="I27" t="s">
         <v>224</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="R27" t="s">
+        <v>13</v>
+      </c>
+      <c r="V27" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM27" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>207</v>
       </c>
@@ -5873,11 +6238,20 @@
       <c r="I28" t="s">
         <v>221</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="R28" t="s">
+        <v>206</v>
+      </c>
+      <c r="V28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM28" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -5887,57 +6261,78 @@
       <c r="I29" t="s">
         <v>37</v>
       </c>
-      <c r="X29">
+      <c r="R29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>32</v>
       </c>
-      <c r="X30">
+      <c r="AA30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>222</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AA31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
         <v>225</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM32" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
       <c r="I33" t="s">
         <v>32</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AM33" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
       <c r="I34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
       <c r="I35" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>214</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -5946,113 +6341,224 @@
       <c r="O37" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="R37" t="s">
+        <v>8</v>
+      </c>
+      <c r="V37" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="R38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I39" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="R39" t="s">
+        <v>10</v>
+      </c>
+      <c r="V39" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>208</v>
       </c>
       <c r="I40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="R40" t="s">
+        <v>208</v>
+      </c>
+      <c r="V40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>210</v>
       </c>
       <c r="I41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="R41" t="s">
+        <v>210</v>
+      </c>
+      <c r="V41" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>215</v>
       </c>
       <c r="I42" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="R42" t="s">
+        <v>205</v>
+      </c>
+      <c r="V42" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I43" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="R43" t="s">
+        <v>13</v>
+      </c>
+      <c r="V43" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="R44" t="s">
+        <v>206</v>
+      </c>
+      <c r="V44" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D45" s="1"/>
       <c r="I45" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R45" t="s">
+        <v>16</v>
+      </c>
+      <c r="V45" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="I46" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="I47" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="I48" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="I49" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+      <c r="AA50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -6065,8 +6571,20 @@
       <c r="O54" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R54" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -6076,8 +6594,17 @@
       <c r="I55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R55" t="s">
+        <v>9</v>
+      </c>
+      <c r="V55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -6087,8 +6614,17 @@
       <c r="I56" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R56" t="s">
+        <v>10</v>
+      </c>
+      <c r="V56" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>204</v>
       </c>
@@ -6098,8 +6634,17 @@
       <c r="I57" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R57" t="s">
+        <v>208</v>
+      </c>
+      <c r="V57" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>205</v>
       </c>
@@ -6109,8 +6654,17 @@
       <c r="I58" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R58" t="s">
+        <v>210</v>
+      </c>
+      <c r="V58" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -6120,8 +6674,17 @@
       <c r="I59" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R59" t="s">
+        <v>205</v>
+      </c>
+      <c r="V59" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>206</v>
       </c>
@@ -6131,8 +6694,17 @@
       <c r="I60" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R60" t="s">
+        <v>13</v>
+      </c>
+      <c r="V60" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -6142,8 +6714,17 @@
       <c r="I61" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R61" t="s">
+        <v>206</v>
+      </c>
+      <c r="V61" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -6153,33 +6734,57 @@
       <c r="I62" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R62" t="s">
+        <v>16</v>
+      </c>
+      <c r="V62" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -6192,52 +6797,100 @@
       <c r="O71" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R71" t="s">
+        <v>8</v>
+      </c>
+      <c r="V71" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R72" t="s">
+        <v>9</v>
+      </c>
+      <c r="V72" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
       <c r="D73" t="s">
         <v>217</v>
       </c>
-      <c r="I73" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R73" t="s">
+        <v>10</v>
+      </c>
+      <c r="V73" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>204</v>
       </c>
       <c r="D74" t="s">
         <v>208</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R74" t="s">
+        <v>208</v>
+      </c>
+      <c r="V74" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>205</v>
       </c>
       <c r="D75" t="s">
         <v>210</v>
       </c>
-      <c r="I75" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R75" t="s">
+        <v>210</v>
+      </c>
+      <c r="V75" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -6247,50 +6900,89 @@
       <c r="I76" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R76" t="s">
+        <v>205</v>
+      </c>
+      <c r="V76" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>206</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R77" t="s">
+        <v>13</v>
+      </c>
+      <c r="V77" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>207</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R78" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>16</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R79" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I80" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA80" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA82" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -6303,8 +6995,20 @@
       <c r="O87" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R87" t="s">
+        <v>8</v>
+      </c>
+      <c r="V87" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -6314,8 +7018,17 @@
       <c r="I88" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R88" t="s">
+        <v>9</v>
+      </c>
+      <c r="V88" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -6325,8 +7038,17 @@
       <c r="I89" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R89" t="s">
+        <v>10</v>
+      </c>
+      <c r="V89" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -6336,8 +7058,17 @@
       <c r="I90" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R90" t="s">
+        <v>208</v>
+      </c>
+      <c r="V90" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>205</v>
       </c>
@@ -6347,8 +7078,17 @@
       <c r="I91" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R91" t="s">
+        <v>210</v>
+      </c>
+      <c r="V91" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -6358,8 +7098,17 @@
       <c r="I92" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R92" t="s">
+        <v>205</v>
+      </c>
+      <c r="V92" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>206</v>
       </c>
@@ -6369,8 +7118,17 @@
       <c r="I93" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R93" t="s">
+        <v>13</v>
+      </c>
+      <c r="V93" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>207</v>
       </c>
@@ -6380,8 +7138,17 @@
       <c r="I94" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R94" t="s">
+        <v>206</v>
+      </c>
+      <c r="V94" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -6391,1549 +7158,1120 @@
       <c r="I95" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R95" t="s">
+        <v>16</v>
+      </c>
+      <c r="V95" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I96" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="V96" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AA97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I98" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AA98" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I99" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="AA99" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="8" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" t="s">
+        <v>263</v>
+      </c>
+      <c r="R1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" t="s">
+        <v>265</v>
+      </c>
+      <c r="R2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="C13" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E231"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>296</v>
+      </c>
+      <c r="E86" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>208</v>
+      </c>
+      <c r="E89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="E108" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>208</v>
+      </c>
+      <c r="E109" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>210</v>
+      </c>
+      <c r="E110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>296</v>
+      </c>
+      <c r="E127" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>219</v>
+      </c>
+      <c r="E130" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>208</v>
+      </c>
+      <c r="E131" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>210</v>
+      </c>
+      <c r="E133" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project2/investigation.xlsx
+++ b/Project2/investigation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="316">
   <si>
     <t>The correct answer is: 5</t>
   </si>
@@ -936,6 +936,42 @@
   </si>
   <si>
     <t>tf-angle=90</t>
+  </si>
+  <si>
+    <t>tf-angle : -90 - tf-angle : 270</t>
+  </si>
+  <si>
+    <t>tf-angle : -90 - tf-angle : null</t>
+  </si>
+  <si>
+    <t>tf-angle : -90 - tf-angle : 0</t>
+  </si>
+  <si>
+    <t>tf-angle : -90 - tf-angle : 90</t>
+  </si>
+  <si>
+    <t>2=&gt;5</t>
+  </si>
+  <si>
+    <t>4=&gt;3</t>
+  </si>
+  <si>
+    <t>2=&gt;8</t>
+  </si>
+  <si>
+    <t>4=&gt;8</t>
+  </si>
+  <si>
+    <t>Answer: 2</t>
+  </si>
+  <si>
+    <t>Robbie guessed: 2</t>
+  </si>
+  <si>
+    <t>hashmap.entrySet() = Entry&lt;String,String&gt;</t>
+  </si>
+  <si>
+    <t>sometimes hashmap.entrySet() = Entry&lt;String,String&gt; and sometimes Set&lt;Entry&lt;String,String&gt;&gt;?</t>
   </si>
 </sst>
 </file>
@@ -7213,7 +7249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -7292,6 +7328,16 @@
         <v>271</v>
       </c>
     </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>315</v>
+      </c>
+    </row>
     <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="13"/>
       <c r="D12" s="13" t="s">
@@ -7378,897 +7424,1841 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E231"/>
+  <dimension ref="A1:Y847"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>296</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Y2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>204</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>205</v>
       </c>
-      <c r="E5" t="s">
+      <c r="M5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="M6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Y6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>206</v>
       </c>
-      <c r="E7" t="s">
+      <c r="M7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>207</v>
       </c>
-      <c r="E8" t="s">
+      <c r="M8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="M9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>297</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>299</v>
+      </c>
+      <c r="L22" t="str">
+        <f>Y2</f>
+        <v>1=&gt;4</v>
+      </c>
+      <c r="M22" t="s">
+        <v>296</v>
+      </c>
+      <c r="P22" t="s">
+        <v>297</v>
+      </c>
+      <c r="S22" t="s">
+        <v>304</v>
+      </c>
+      <c r="X22" t="str">
+        <f>Y10</f>
+        <v>1=&gt;3</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>208</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s">
+        <v>204</v>
+      </c>
+      <c r="P25" t="s">
+        <v>208</v>
+      </c>
+      <c r="S25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>209</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>210</v>
+      </c>
+      <c r="S26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>210</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>205</v>
+      </c>
+      <c r="S27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>211</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" t="s">
+        <v>207</v>
+      </c>
+      <c r="P29" t="s">
+        <v>206</v>
+      </c>
+      <c r="S29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>222</v>
+      </c>
+      <c r="S31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>223</v>
+      </c>
+      <c r="S32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>298</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>300</v>
+      </c>
+      <c r="L43" t="str">
+        <f>Y3</f>
+        <v>2=&gt;5</v>
+      </c>
+      <c r="M43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>297</v>
+      </c>
+      <c r="S43" t="s">
+        <v>305</v>
+      </c>
+      <c r="X43" t="str">
+        <f>Y11</f>
+        <v>2=&gt;3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>9</v>
+      </c>
+      <c r="S44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>212</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" t="s">
+        <v>204</v>
+      </c>
+      <c r="P46" t="s">
+        <v>208</v>
+      </c>
+      <c r="S46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>208</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" t="s">
+        <v>205</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>210</v>
+      </c>
+      <c r="S47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>210</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>205</v>
+      </c>
+      <c r="S48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49" t="s">
+        <v>206</v>
+      </c>
+      <c r="G49" t="s">
+        <v>221</v>
+      </c>
+      <c r="M49" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>13</v>
+      </c>
+      <c r="S49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>213</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D50" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>206</v>
+      </c>
+      <c r="S50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" t="s">
+        <v>16</v>
+      </c>
+      <c r="S51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>222</v>
+      </c>
+      <c r="S52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>225</v>
+      </c>
+      <c r="S53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>214</v>
       </c>
-      <c r="E64" t="s">
+      <c r="D64" t="s">
+        <v>296</v>
+      </c>
+      <c r="G64" t="s">
+        <v>301</v>
+      </c>
+      <c r="L64" t="str">
+        <f>Y4</f>
+        <v>3=&gt;4</v>
+      </c>
+      <c r="M64" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>297</v>
+      </c>
+      <c r="S64" t="s">
+        <v>306</v>
+      </c>
+      <c r="X64" t="str">
+        <f>Y12</f>
+        <v>3=&gt;4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>33</v>
+      </c>
+      <c r="M65" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>9</v>
+      </c>
+      <c r="S65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
-      <c r="E66" t="s">
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>10</v>
+      </c>
+      <c r="S66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>208</v>
       </c>
-      <c r="E67" t="s">
+      <c r="D67" t="s">
+        <v>204</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>208</v>
+      </c>
+      <c r="S67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>210</v>
       </c>
-      <c r="E68" t="s">
+      <c r="D68" t="s">
+        <v>205</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
+      <c r="M68" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>210</v>
+      </c>
+      <c r="S68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>215</v>
       </c>
-      <c r="E69" t="s">
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>226</v>
+      </c>
+      <c r="M69" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>205</v>
+      </c>
+      <c r="S69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
-      <c r="E70" t="s">
+      <c r="D70" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70" t="s">
+        <v>221</v>
+      </c>
+      <c r="M70" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P70" t="s">
+        <v>13</v>
+      </c>
+      <c r="S70" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>16</v>
       </c>
-      <c r="E71" t="s">
+      <c r="D71" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="M71" t="s">
+        <v>207</v>
+      </c>
+      <c r="P71" t="s">
+        <v>206</v>
+      </c>
+      <c r="S71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M72" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" t="s">
+        <v>16</v>
+      </c>
+      <c r="S72" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>222</v>
+      </c>
+      <c r="S73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>227</v>
+      </c>
+      <c r="S74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>254</v>
+      </c>
+      <c r="S76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E85" t="s">
+      <c r="D85" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="L85" s="10" t="str">
+        <f>Y5</f>
+        <v>4=&gt;5</v>
+      </c>
+      <c r="M85" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P85" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="S85" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="X85" s="10" t="str">
+        <f>Y13</f>
+        <v>4=&gt;3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>296</v>
       </c>
-      <c r="E86" t="s">
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P86" t="s">
+        <v>9</v>
+      </c>
+      <c r="S86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
-      <c r="E87" t="s">
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="M87" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P87" t="s">
+        <v>10</v>
+      </c>
+      <c r="S87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
-      <c r="E88" t="s">
+      <c r="D88" t="s">
+        <v>204</v>
+      </c>
+      <c r="G88" t="s">
+        <v>32</v>
+      </c>
+      <c r="M88" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P88" t="s">
+        <v>208</v>
+      </c>
+      <c r="S88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>208</v>
       </c>
-      <c r="E89" t="s">
+      <c r="D89" t="s">
+        <v>205</v>
+      </c>
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="M89" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P89" t="s">
+        <v>210</v>
+      </c>
+      <c r="S89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>210</v>
       </c>
-      <c r="E90" t="s">
+      <c r="D90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>32</v>
+      </c>
+      <c r="M90" t="s">
+        <v>13</v>
+      </c>
+      <c r="P90" t="s">
+        <v>205</v>
+      </c>
+      <c r="S90" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>13</v>
       </c>
-      <c r="E91" t="s">
+      <c r="D91" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91" t="s">
+        <v>228</v>
+      </c>
+      <c r="M91" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P91" t="s">
+        <v>13</v>
+      </c>
+      <c r="S91" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>216</v>
       </c>
-      <c r="E92" t="s">
+      <c r="D92" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>221</v>
+      </c>
+      <c r="M92" t="s">
+        <v>207</v>
+      </c>
+      <c r="P92" t="s">
+        <v>206</v>
+      </c>
+      <c r="S92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
-      <c r="E93" t="s">
+      <c r="D93" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>37</v>
+      </c>
+      <c r="M93" t="s">
+        <v>16</v>
+      </c>
+      <c r="P93" t="s">
+        <v>16</v>
+      </c>
+      <c r="S93" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
+      <c r="S94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>222</v>
+      </c>
+      <c r="S95" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>229</v>
+      </c>
+      <c r="S96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
-      <c r="E106" t="s">
+      <c r="D106" t="s">
+        <v>296</v>
+      </c>
+      <c r="G106" t="s">
+        <v>301</v>
+      </c>
+      <c r="L106" t="str">
+        <f>Y6</f>
+        <v>5=&gt;3</v>
+      </c>
+      <c r="M106" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P106" t="s">
+        <v>297</v>
+      </c>
+      <c r="S106" t="s">
+        <v>305</v>
+      </c>
+      <c r="X106" t="str">
+        <f>Y14</f>
+        <v>5=&gt;3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
-      <c r="E107" t="s">
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" t="s">
+        <v>33</v>
+      </c>
+      <c r="M107" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P107" t="s">
+        <v>9</v>
+      </c>
+      <c r="S107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>217</v>
       </c>
-      <c r="E108" t="s">
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>32</v>
+      </c>
+      <c r="M108" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P108" t="s">
+        <v>10</v>
+      </c>
+      <c r="S108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>208</v>
       </c>
-      <c r="E109" t="s">
+      <c r="D109" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>34</v>
+      </c>
+      <c r="M109" t="s">
+        <v>204</v>
+      </c>
+      <c r="P109" t="s">
+        <v>208</v>
+      </c>
+      <c r="S109" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>210</v>
       </c>
-      <c r="E110" t="s">
+      <c r="D110" t="s">
+        <v>205</v>
+      </c>
+      <c r="G110" t="s">
+        <v>32</v>
+      </c>
+      <c r="M110" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P110" t="s">
+        <v>210</v>
+      </c>
+      <c r="S110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>218</v>
       </c>
-      <c r="E111" t="s">
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>230</v>
+      </c>
+      <c r="M111" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P111" t="s">
+        <v>205</v>
+      </c>
+      <c r="S111" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>16</v>
       </c>
-      <c r="E112" t="s">
+      <c r="D112" t="s">
+        <v>206</v>
+      </c>
+      <c r="G112" t="s">
+        <v>221</v>
+      </c>
+      <c r="M112" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P112" t="s">
+        <v>13</v>
+      </c>
+      <c r="S112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>207</v>
+      </c>
+      <c r="G113" t="s">
+        <v>231</v>
+      </c>
+      <c r="P113" t="s">
+        <v>206</v>
+      </c>
+      <c r="S113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>222</v>
+      </c>
+      <c r="P114" t="s">
+        <v>16</v>
+      </c>
+      <c r="S114" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>232</v>
+      </c>
+      <c r="S115" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>40</v>
+      </c>
+      <c r="S116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>253</v>
+      </c>
+      <c r="S117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>296</v>
       </c>
-      <c r="E127" t="s">
+      <c r="D127" t="s">
+        <v>296</v>
+      </c>
+      <c r="G127" t="s">
+        <v>302</v>
+      </c>
+      <c r="L127" t="str">
+        <f>Y7</f>
+        <v>6=&gt;4</v>
+      </c>
+      <c r="M127" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P127" t="s">
+        <v>297</v>
+      </c>
+      <c r="S127" t="s">
+        <v>307</v>
+      </c>
+      <c r="X127" t="str">
+        <f>Y15</f>
+        <v>6=&gt;3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
-      <c r="E128" t="s">
+      <c r="D128" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>32</v>
+      </c>
+      <c r="M128" t="s">
+        <v>9</v>
+      </c>
+      <c r="P128" t="s">
+        <v>9</v>
+      </c>
+      <c r="S128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
-      <c r="E129" t="s">
+      <c r="D129" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>33</v>
+      </c>
+      <c r="M129" t="s">
+        <v>10</v>
+      </c>
+      <c r="P129" t="s">
+        <v>10</v>
+      </c>
+      <c r="S129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>219</v>
       </c>
-      <c r="E130" t="s">
+      <c r="D130" t="s">
+        <v>204</v>
+      </c>
+      <c r="G130" t="s">
+        <v>32</v>
+      </c>
+      <c r="M130" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P130" t="s">
+        <v>208</v>
+      </c>
+      <c r="S130" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>208</v>
       </c>
-      <c r="E131" t="s">
+      <c r="D131" t="s">
+        <v>205</v>
+      </c>
+      <c r="G131" t="s">
+        <v>34</v>
+      </c>
+      <c r="M131" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P131" t="s">
+        <v>210</v>
+      </c>
+      <c r="S131" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>148</v>
       </c>
-      <c r="E132" t="s">
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>32</v>
+      </c>
+      <c r="M132" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P132" t="s">
+        <v>205</v>
+      </c>
+      <c r="S132" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>210</v>
       </c>
-      <c r="E133" t="s">
+      <c r="D133" t="s">
+        <v>206</v>
+      </c>
+      <c r="G133" t="s">
+        <v>233</v>
+      </c>
+      <c r="M133" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P133" t="s">
+        <v>13</v>
+      </c>
+      <c r="S133" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
-      <c r="E134" t="s">
+      <c r="D134" t="s">
+        <v>207</v>
+      </c>
+      <c r="G134" t="s">
+        <v>221</v>
+      </c>
+      <c r="M134" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P134" t="s">
+        <v>206</v>
+      </c>
+      <c r="S134" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>13</v>
       </c>
-      <c r="E135" t="s">
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>37</v>
+      </c>
+      <c r="M135" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P135" t="s">
+        <v>16</v>
+      </c>
+      <c r="S135" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>16</v>
       </c>
-      <c r="E136" t="s">
+      <c r="G136" t="s">
+        <v>32</v>
+      </c>
+      <c r="M136" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="S136" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="S137" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>234</v>
+      </c>
+      <c r="S138" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>40</v>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Project2/investigation.xlsx
+++ b/Project2/investigation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="323">
   <si>
     <t>The correct answer is: 5</t>
   </si>
@@ -344,58 +344,10 @@
     <t>4=&gt;9</t>
   </si>
   <si>
-    <t>5=&gt;9</t>
-  </si>
-  <si>
-    <t>6=&gt;9</t>
-  </si>
-  <si>
     <t>Answer: 1</t>
   </si>
   <si>
     <t>Robbie guessed: 1</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>abc1</t>
-  </si>
-  <si>
-    <t>abc2</t>
-  </si>
-  <si>
-    <t>abc3</t>
-  </si>
-  <si>
-    <t>abc4</t>
-  </si>
-  <si>
-    <t>abc5</t>
-  </si>
-  <si>
-    <t>abc6</t>
-  </si>
-  <si>
-    <t>2x2 prob 1</t>
   </si>
   <si>
     <t>B.0.fill=no</t>
@@ -972,6 +924,75 @@
   </si>
   <si>
     <t>sometimes hashmap.entrySet() = Entry&lt;String,String&gt; and sometimes Set&lt;Entry&lt;String,String&gt;&gt;?</t>
+  </si>
+  <si>
+    <t>tf-angle=180</t>
+  </si>
+  <si>
+    <t>tf-angle=315</t>
+  </si>
+  <si>
+    <t>tf-angle=-180</t>
+  </si>
+  <si>
+    <t>tf-angle=-135</t>
+  </si>
+  <si>
+    <t>tf-angle : 180 - tf-angle : null</t>
+  </si>
+  <si>
+    <t>tf-angle : 180 - tf-angle : 0</t>
+  </si>
+  <si>
+    <t>*****rotation sym Score increased******</t>
+  </si>
+  <si>
+    <t>tf-angle : 180 - tf-angle : -90</t>
+  </si>
+  <si>
+    <t>tf-angle : 180 - tf-angle : 315</t>
+  </si>
+  <si>
+    <t>tf-angle : 180 - tf-angle : -180</t>
+  </si>
+  <si>
+    <t>tf-angle : 180 - tf-angle : -135</t>
+  </si>
+  <si>
+    <t>tf-angle=135</t>
+  </si>
+  <si>
+    <t>tf-angle : 0 - tf-angle : -90</t>
+  </si>
+  <si>
+    <t>tf-angle : 0 - tf-angle : 180</t>
+  </si>
+  <si>
+    <t>tf-angle : 0 - tf-angle : null</t>
+  </si>
+  <si>
+    <t>tf-angle : 0 - tf-angle : 135</t>
+  </si>
+  <si>
+    <t>tf-angle : 0 - tf-angle : 0</t>
+  </si>
+  <si>
+    <t>tf-angle : 0 - tf-angle : 315</t>
+  </si>
+  <si>
+    <t>5=&gt;4</t>
+  </si>
+  <si>
+    <t>3=&gt;3</t>
+  </si>
+  <si>
+    <t>1=&gt;8</t>
+  </si>
+  <si>
+    <t>4=&gt;7</t>
+  </si>
+  <si>
+    <t>5=&gt;8</t>
   </si>
 </sst>
 </file>
@@ -987,30 +1008,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1026,19 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1097,11 +1088,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1409,2097 +1395,2023 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q471"/>
+  <dimension ref="A1:Y606"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S34" sqref="P34:S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="M3" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="M7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" t="s">
+      <c r="Y7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="L20" t="str">
+        <f>Y2</f>
+        <v>1=&gt;4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>281</v>
+      </c>
+      <c r="P20" t="s">
+        <v>282</v>
+      </c>
+      <c r="S20" t="s">
+        <v>312</v>
+      </c>
+      <c r="X20" t="str">
+        <f>Y10</f>
+        <v>1=&gt;4</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="S27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="S29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I13" s="9" t="s">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
+      <c r="S30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="S31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>238</v>
+      </c>
+      <c r="S32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" t="str">
+        <f>Y3</f>
+        <v>2=&gt;5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>300</v>
+      </c>
+      <c r="P37" t="s">
+        <v>282</v>
+      </c>
+      <c r="S37" t="s">
+        <v>313</v>
+      </c>
+      <c r="X37" t="str">
+        <f>Y11</f>
+        <v>2=&gt;4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="M38" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" t="s">
+        <v>9</v>
+      </c>
+      <c r="S38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" t="s">
+        <v>10</v>
+      </c>
+      <c r="S39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" t="s">
         <v>21</v>
       </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="P40" t="s">
+        <v>17</v>
+      </c>
+      <c r="S40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s">
+        <v>11</v>
+      </c>
+      <c r="P41" t="s">
         <v>19</v>
       </c>
-      <c r="I23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" t="s">
-        <v>41</v>
-      </c>
-      <c r="N35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="S41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>19</v>
-      </c>
-      <c r="I40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>15</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
-      <c r="I42" t="s">
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" t="s">
+        <v>13</v>
+      </c>
+      <c r="P42" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="M43" t="s">
+        <v>22</v>
+      </c>
+      <c r="P43" t="s">
+        <v>13</v>
+      </c>
+      <c r="S43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
+      <c r="M44" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" t="s">
+        <v>14</v>
+      </c>
+      <c r="S44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" t="s">
+        <v>16</v>
+      </c>
+      <c r="S45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>90</v>
+      </c>
+      <c r="C47">
+        <v>180</v>
+      </c>
+      <c r="D47">
+        <v>270</v>
+      </c>
+      <c r="E47">
+        <f>SUM(A47:D47)</f>
+        <v>540</v>
+      </c>
       <c r="G47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I47" t="s">
+        <v>43</v>
+      </c>
+      <c r="S47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I49" t="s">
+      <c r="B48">
+        <v>135</v>
+      </c>
+      <c r="C48">
+        <v>225</v>
+      </c>
+      <c r="D48">
+        <v>315</v>
+      </c>
+      <c r="E48">
+        <f>SUM(A48:D48)</f>
+        <v>720</v>
+      </c>
+      <c r="G48" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="S48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <f>A49+90</f>
+        <v>135</v>
+      </c>
+      <c r="C49">
+        <f>B49+90</f>
+        <v>225</v>
+      </c>
+      <c r="D49">
+        <f>C49+90</f>
+        <v>315</v>
+      </c>
+      <c r="E49">
+        <f>SUM(A49:D49)</f>
+        <v>720</v>
+      </c>
+      <c r="G49" t="s">
+        <v>238</v>
+      </c>
+      <c r="S49" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <f>A50+90</f>
+        <v>136</v>
+      </c>
+      <c r="C50">
+        <f>B50+90</f>
+        <v>226</v>
+      </c>
+      <c r="D50">
+        <f>C50+90</f>
+        <v>316</v>
+      </c>
+      <c r="E50">
+        <f>SUM(A50:D50)</f>
+        <v>724</v>
+      </c>
+      <c r="G50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:D51" si="0">A51+90</f>
+        <v>137</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>227</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:E52" si="1">SUM(A51:D51)</f>
+        <v>728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>90</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52:D52" si="2">A52+90</f>
+        <v>180</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="G52">
+        <f>900-540</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>300</v>
+      </c>
+      <c r="G54" t="s">
+        <v>307</v>
+      </c>
+      <c r="L54" t="str">
+        <f>Y4</f>
+        <v>3=&gt;5</v>
+      </c>
+      <c r="M54" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" t="s">
+        <v>282</v>
+      </c>
+      <c r="S54" t="s">
+        <v>314</v>
+      </c>
+      <c r="X54" t="str">
+        <f>Y12</f>
+        <v>3=&gt;3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>281</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P55" t="s">
+        <v>9</v>
+      </c>
+      <c r="S55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" t="s">
+        <v>10</v>
+      </c>
+      <c r="P56" t="s">
+        <v>10</v>
+      </c>
+      <c r="S56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" t="s">
+        <v>11</v>
+      </c>
+      <c r="P57" t="s">
+        <v>17</v>
+      </c>
+      <c r="S57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P58" t="s">
+        <v>19</v>
+      </c>
+      <c r="S58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" t="s">
+        <v>13</v>
+      </c>
+      <c r="P59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+      <c r="M60" t="s">
+        <v>15</v>
+      </c>
+      <c r="P60" t="s">
+        <v>13</v>
+      </c>
+      <c r="S60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="M61" t="s">
+        <v>16</v>
+      </c>
+      <c r="P61" t="s">
+        <v>14</v>
+      </c>
+      <c r="S61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="S63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="S64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="S65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>25</v>
       </c>
-      <c r="I52" t="s">
-        <v>41</v>
-      </c>
-      <c r="N52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="D71" t="s">
+        <v>300</v>
+      </c>
+      <c r="G71" t="s">
+        <v>308</v>
+      </c>
+      <c r="L71" t="str">
+        <f>Y5</f>
+        <v>4=&gt;4</v>
+      </c>
+      <c r="M71" t="s">
+        <v>25</v>
+      </c>
+      <c r="P71" t="s">
+        <v>282</v>
+      </c>
+      <c r="S71" t="s">
+        <v>315</v>
+      </c>
+      <c r="X71" t="str">
+        <f>Y13</f>
+        <v>4=&gt;3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>301</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="M72" t="s">
+        <v>311</v>
+      </c>
+      <c r="P72" t="s">
+        <v>9</v>
+      </c>
+      <c r="S72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P73" t="s">
+        <v>10</v>
+      </c>
+      <c r="S73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
         <v>11</v>
       </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="M74" t="s">
+        <v>10</v>
+      </c>
+      <c r="P74" t="s">
+        <v>17</v>
+      </c>
+      <c r="S74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
         <v>12</v>
       </c>
-      <c r="D56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>118</v>
-      </c>
-      <c r="I56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" t="s">
+        <v>11</v>
+      </c>
+      <c r="P75" t="s">
         <v>19</v>
       </c>
-      <c r="I57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I64" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I65" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I66" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="I69" t="s">
-        <v>41</v>
-      </c>
-      <c r="N69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" t="s">
-        <v>27</v>
-      </c>
-      <c r="I73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="S75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>19</v>
-      </c>
-      <c r="I74" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" t="s">
-        <v>28</v>
-      </c>
-      <c r="I75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>15</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
       </c>
-      <c r="I76" t="s">
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="M76" t="s">
+        <v>13</v>
+      </c>
+      <c r="P76" t="s">
+        <v>12</v>
+      </c>
+      <c r="S76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="M77" t="s">
+        <v>26</v>
+      </c>
+      <c r="P77" t="s">
+        <v>13</v>
+      </c>
+      <c r="S77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I78" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I79" t="s">
+      <c r="M78" t="s">
+        <v>15</v>
+      </c>
+      <c r="P78" t="s">
+        <v>14</v>
+      </c>
+      <c r="S78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+      <c r="M79" t="s">
+        <v>16</v>
+      </c>
+      <c r="P79" t="s">
+        <v>16</v>
+      </c>
+      <c r="S79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I80" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I83" t="s">
+      <c r="S80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>47</v>
+      </c>
+      <c r="S81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I84" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="I86" t="s">
-        <v>41</v>
-      </c>
-      <c r="N86" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>302</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" t="s">
+        <v>300</v>
+      </c>
+      <c r="G88" t="s">
+        <v>309</v>
+      </c>
+      <c r="L88" t="str">
+        <f>Y6</f>
+        <v>5=&gt;4</v>
+      </c>
+      <c r="M88" t="s">
+        <v>282</v>
+      </c>
+      <c r="P88" t="s">
+        <v>282</v>
+      </c>
+      <c r="S88" t="s">
+        <v>316</v>
+      </c>
+      <c r="X88" t="str">
+        <f>Y14</f>
+        <v>5=&gt;4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="M89" t="s">
+        <v>9</v>
+      </c>
+      <c r="P89" t="s">
+        <v>9</v>
+      </c>
+      <c r="S89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>32</v>
+      </c>
+      <c r="M90" t="s">
+        <v>10</v>
+      </c>
+      <c r="P90" t="s">
+        <v>10</v>
+      </c>
+      <c r="S90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
         <v>11</v>
       </c>
-      <c r="D89" t="s">
-        <v>29</v>
-      </c>
-      <c r="I89" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="M91" t="s">
+        <v>11</v>
+      </c>
+      <c r="P91" t="s">
+        <v>17</v>
+      </c>
+      <c r="S91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" t="s">
         <v>12</v>
       </c>
-      <c r="D90" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="G92" t="s">
+        <v>32</v>
+      </c>
+      <c r="M92" t="s">
+        <v>27</v>
+      </c>
+      <c r="P92" t="s">
+        <v>19</v>
+      </c>
+      <c r="S92" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" t="s">
-        <v>30</v>
-      </c>
-      <c r="I91" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>14</v>
-      </c>
-      <c r="D92" t="s">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>19</v>
-      </c>
-      <c r="I92" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>15</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
       </c>
-      <c r="I93" t="s">
+      <c r="G93" t="s">
+        <v>48</v>
+      </c>
+      <c r="M93" t="s">
+        <v>28</v>
+      </c>
+      <c r="P93" t="s">
+        <v>12</v>
+      </c>
+      <c r="S93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="M94" t="s">
+        <v>13</v>
+      </c>
+      <c r="P94" t="s">
+        <v>13</v>
+      </c>
+      <c r="S94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I96" t="s">
+      <c r="M95" t="s">
+        <v>15</v>
+      </c>
+      <c r="P95" t="s">
+        <v>14</v>
+      </c>
+      <c r="S95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
+      <c r="M96" t="s">
+        <v>16</v>
+      </c>
+      <c r="P96" t="s">
+        <v>16</v>
+      </c>
+      <c r="S96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I97" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I98" t="s">
+      <c r="S97" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>49</v>
+      </c>
+      <c r="S98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>40</v>
+      </c>
+      <c r="S99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>238</v>
+      </c>
+      <c r="S100" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>303</v>
+      </c>
+      <c r="D105" t="s">
+        <v>300</v>
+      </c>
+      <c r="G105" t="s">
+        <v>310</v>
+      </c>
+      <c r="L105" t="str">
+        <f>Y7</f>
+        <v>6=&gt;4</v>
+      </c>
+      <c r="M105" t="s">
+        <v>301</v>
+      </c>
+      <c r="P105" t="s">
+        <v>282</v>
+      </c>
+      <c r="S105" t="s">
+        <v>317</v>
+      </c>
+      <c r="X105" t="str">
+        <f>Y15</f>
+        <v>6=&gt;3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
+        <v>33</v>
+      </c>
+      <c r="M106" t="s">
+        <v>9</v>
+      </c>
+      <c r="P106" t="s">
+        <v>9</v>
+      </c>
+      <c r="S106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>32</v>
+      </c>
+      <c r="M107" t="s">
+        <v>10</v>
+      </c>
+      <c r="P107" t="s">
+        <v>10</v>
+      </c>
+      <c r="S107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="M108" t="s">
+        <v>29</v>
+      </c>
+      <c r="P108" t="s">
+        <v>17</v>
+      </c>
+      <c r="S108" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>32</v>
+      </c>
+      <c r="M109" t="s">
+        <v>11</v>
+      </c>
+      <c r="P109" t="s">
+        <v>19</v>
+      </c>
+      <c r="S109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>50</v>
+      </c>
+      <c r="M110" t="s">
+        <v>30</v>
+      </c>
+      <c r="P110" t="s">
+        <v>12</v>
+      </c>
+      <c r="S110" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>36</v>
+      </c>
+      <c r="M111" t="s">
+        <v>13</v>
+      </c>
+      <c r="P111" t="s">
+        <v>13</v>
+      </c>
+      <c r="S111" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>37</v>
+      </c>
+      <c r="M112" t="s">
+        <v>15</v>
+      </c>
+      <c r="P112" t="s">
+        <v>14</v>
+      </c>
+      <c r="S112" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>32</v>
+      </c>
+      <c r="M113" t="s">
+        <v>16</v>
+      </c>
+      <c r="P113" t="s">
+        <v>16</v>
+      </c>
+      <c r="S113" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
+      <c r="S114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I99" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I100" t="s">
+      <c r="S115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I101" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G116">
+      <c r="S116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G133">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G150">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3517,24 +3429,24 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="A3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K4" t="s">
@@ -3545,25 +3457,25 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>132</v>
+      <c r="A6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="K6" t="s">
         <v>32</v>
@@ -3574,41 +3486,41 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
       <c r="R7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="R9" t="s">
         <v>32</v>
@@ -3619,24 +3531,24 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
         <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>131</v>
+      <c r="A11" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="R11" t="s">
         <v>37</v>
@@ -3646,11 +3558,11 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
         <v>136</v>
-      </c>
-      <c r="K12" t="s">
-        <v>152</v>
       </c>
       <c r="R12" t="s">
         <v>32</v>
@@ -3661,12 +3573,12 @@
         <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="R14" t="s">
         <v>32</v>
@@ -3677,7 +3589,7 @@
         <v>37</v>
       </c>
       <c r="R15" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -3689,8 +3601,8 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K17" s="12" t="s">
-        <v>154</v>
+      <c r="K17" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="R17" t="s">
         <v>40</v>
@@ -3706,16 +3618,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -3742,10 +3654,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K24" t="s">
         <v>32</v>
@@ -3753,10 +3665,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
@@ -3764,10 +3676,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K26" t="s">
         <v>32</v>
@@ -3775,13 +3687,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -3789,7 +3701,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="K28" t="s">
         <v>32</v>
@@ -3797,13 +3709,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K29" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -3811,7 +3723,7 @@
         <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -3821,7 +3733,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3836,7 +3748,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3849,21 +3761,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>16</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="K40" t="s">
         <v>32</v>
@@ -3893,10 +3805,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="K43" t="s">
         <v>34</v>
@@ -3904,10 +3816,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K44" t="s">
         <v>32</v>
@@ -3915,21 +3827,21 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="K45" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K46" t="s">
         <v>32</v>
@@ -3943,18 +3855,18 @@
         <v>13</v>
       </c>
       <c r="K47" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
+        <v>120</v>
+      </c>
+      <c r="K48" t="s">
         <v>136</v>
-      </c>
-      <c r="K48" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3967,7 +3879,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3982,7 +3894,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K53" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4000,21 +3912,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>16</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="K59" t="s">
         <v>32</v>
@@ -4044,10 +3956,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K62" t="s">
         <v>34</v>
@@ -4055,10 +3967,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="K63" t="s">
         <v>32</v>
@@ -4066,18 +3978,18 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K64" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -4091,21 +4003,21 @@
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E67" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K67" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4118,7 +4030,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K69" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4133,7 +4045,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K72" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4146,17 +4058,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>163</v>
+    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>16</v>
@@ -4189,10 +4101,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E80" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="K80" t="s">
         <v>34</v>
@@ -4200,10 +4112,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E81" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K81" t="s">
         <v>32</v>
@@ -4211,18 +4123,18 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" t="s">
         <v>129</v>
       </c>
-      <c r="E82" t="s">
-        <v>145</v>
-      </c>
       <c r="K82" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
@@ -4236,18 +4148,18 @@
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K84" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="K85" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4260,7 +4172,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K87" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4275,7 +4187,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4293,17 +4205,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>165</v>
+    <row r="95" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E96" t="s">
         <v>16</v>
@@ -4336,10 +4248,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E99" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K99" t="s">
         <v>34</v>
@@ -4347,10 +4259,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E100" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="K100" t="s">
         <v>32</v>
@@ -4358,21 +4270,21 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E101" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="K101" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E102" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="K102" t="s">
         <v>32</v>
@@ -4383,21 +4295,21 @@
         <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="K103" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E104" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="K104" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4405,7 +4317,7 @@
         <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K105" t="s">
         <v>32</v>
@@ -4416,12 +4328,12 @@
         <v>13</v>
       </c>
       <c r="K106" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K107" t="s">
         <v>37</v>
@@ -4437,7 +4349,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K109" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -4462,17 +4374,17 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
@@ -4482,12 +4394,12 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -4497,7 +4409,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -4512,17 +4424,17 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
@@ -4537,7 +4449,7 @@
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -4552,22 +4464,22 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -4577,7 +4489,7 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
@@ -4587,12 +4499,12 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
@@ -4607,17 +4519,17 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
@@ -4632,12 +4544,12 @@
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -4652,22 +4564,22 @@
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -4677,7 +4589,7 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
@@ -4687,7 +4599,7 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -4702,32 +4614,32 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
@@ -4742,7 +4654,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -4757,22 +4669,22 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
@@ -4807,12 +4719,12 @@
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
@@ -4822,7 +4734,7 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
@@ -4837,7 +4749,7 @@
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
@@ -4847,7 +4759,7 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
@@ -4882,12 +4794,12 @@
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
@@ -4897,7 +4809,7 @@
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
@@ -4912,7 +4824,7 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
@@ -4922,7 +4834,7 @@
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -4957,12 +4869,12 @@
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
@@ -4972,7 +4884,7 @@
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
@@ -4987,7 +4899,7 @@
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
@@ -4997,7 +4909,7 @@
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -5032,12 +4944,12 @@
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
@@ -5047,7 +4959,7 @@
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
@@ -5062,7 +4974,7 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
@@ -5072,7 +4984,7 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
@@ -5107,12 +5019,12 @@
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
@@ -5122,7 +5034,7 @@
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
@@ -5137,7 +5049,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -5147,7 +5059,7 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
@@ -5182,12 +5094,12 @@
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
@@ -5197,7 +5109,7 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
@@ -5212,7 +5124,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -5222,7 +5134,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -5242,7 +5154,7 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
@@ -5252,7 +5164,7 @@
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
@@ -5267,7 +5179,7 @@
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
@@ -5277,7 +5189,7 @@
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
@@ -5287,7 +5199,7 @@
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
@@ -5302,7 +5214,7 @@
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
@@ -5312,7 +5224,7 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
@@ -5322,7 +5234,7 @@
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
@@ -5337,7 +5249,7 @@
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -5771,15 +5683,15 @@
         <v>78</v>
       </c>
       <c r="AK1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AI2" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="AL2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -5811,7 +5723,7 @@
         <v>66</v>
       </c>
       <c r="AM3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
@@ -5837,7 +5749,7 @@
         <v>104</v>
       </c>
       <c r="AM4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -5863,24 +5775,24 @@
         <v>105</v>
       </c>
       <c r="AK5" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="V6" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AA6" t="s">
         <v>32</v>
@@ -5889,24 +5801,24 @@
         <v>106</v>
       </c>
       <c r="AL6" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I7" t="s">
         <v>34</v>
       </c>
       <c r="R7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="V7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="AA7" t="s">
         <v>34</v>
@@ -5915,7 +5827,7 @@
         <v>107</v>
       </c>
       <c r="AM7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -5923,36 +5835,36 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="V8" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="AA8" t="s">
         <v>32</v>
       </c>
       <c r="AI8" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="AM8" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="I9" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="R9" t="s">
         <v>13</v>
@@ -5961,36 +5873,36 @@
         <v>13</v>
       </c>
       <c r="AA9" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="AI9" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="AK9" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="R10" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="V10" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="AL10" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
@@ -6010,10 +5922,10 @@
         <v>16</v>
       </c>
       <c r="AA11" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="AM11" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -6024,15 +5936,15 @@
         <v>37</v>
       </c>
       <c r="AH12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AM12" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="AA13" t="s">
         <v>32</v>
@@ -6046,16 +5958,16 @@
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="AA14" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="AH14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AL14" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
@@ -6066,15 +5978,15 @@
         <v>40</v>
       </c>
       <c r="AM15" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="AM16" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
@@ -6084,17 +5996,17 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AL18" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AM19" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AM20" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
@@ -6108,7 +6020,7 @@
         <v>41</v>
       </c>
       <c r="O21" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="R21" t="s">
         <v>8</v>
@@ -6120,7 +6032,7 @@
         <v>31</v>
       </c>
       <c r="AG21" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="AK21">
         <v>3</v>
@@ -6146,7 +6058,7 @@
         <v>33</v>
       </c>
       <c r="AL22" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
@@ -6163,50 +6075,50 @@
         <v>10</v>
       </c>
       <c r="V23" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="AA23" t="s">
         <v>32</v>
       </c>
       <c r="AM23" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="I24" t="s">
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="V24" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AA24" t="s">
         <v>34</v>
       </c>
       <c r="AM24" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I25" t="s">
         <v>34</v>
       </c>
       <c r="R25" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="V25" t="s">
         <v>13</v>
@@ -6223,68 +6135,68 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I26" t="s">
         <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="V26" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="AA26" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="AL26" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="R27" t="s">
         <v>13</v>
       </c>
       <c r="V27" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AA27" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="R28" t="s">
+        <v>190</v>
+      </c>
+      <c r="V28" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA28" t="s">
         <v>221</v>
       </c>
-      <c r="R28" t="s">
-        <v>206</v>
-      </c>
-      <c r="V28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>237</v>
-      </c>
       <c r="AM28" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
@@ -6320,24 +6232,24 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA31" t="s">
         <v>222</v>
       </c>
-      <c r="AA31" t="s">
-        <v>238</v>
-      </c>
       <c r="AL31" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="I32" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="AA32" t="s">
         <v>40</v>
       </c>
       <c r="AM32" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
@@ -6346,7 +6258,7 @@
         <v>32</v>
       </c>
       <c r="AM33" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
@@ -6358,7 +6270,7 @@
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
@@ -6369,25 +6281,25 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O37" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="R37" t="s">
         <v>8</v>
       </c>
       <c r="V37" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="AA37" t="s">
         <v>41</v>
       </c>
       <c r="AG37" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
@@ -6432,16 +6344,16 @@
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I40" t="s">
         <v>34</v>
       </c>
       <c r="R40" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="V40" t="s">
         <v>10</v>
@@ -6452,19 +6364,19 @@
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I41" t="s">
         <v>32</v>
       </c>
       <c r="R41" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="V41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AA41" t="s">
         <v>34</v>
@@ -6475,16 +6387,16 @@
         <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I42" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="R42" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="V42" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="AA42" t="s">
         <v>32</v>
@@ -6492,13 +6404,13 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="R43" t="s">
         <v>13</v>
@@ -6507,12 +6419,12 @@
         <v>13</v>
       </c>
       <c r="AA43" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
@@ -6521,13 +6433,13 @@
         <v>37</v>
       </c>
       <c r="R44" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="V44" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AA44" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
@@ -6552,17 +6464,17 @@
       <c r="A46" s="1"/>
       <c r="D46" s="1"/>
       <c r="I46" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="AA46" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="D47" s="1"/>
       <c r="I47" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="AA47" t="s">
         <v>37</v>
@@ -6582,10 +6494,10 @@
       <c r="A49" s="1"/>
       <c r="D49" s="1"/>
       <c r="I49" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="AA49" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
@@ -6662,7 +6574,7 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -6671,7 +6583,7 @@
         <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="V57" t="s">
         <v>10</v>
@@ -6682,19 +6594,19 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I58" t="s">
         <v>34</v>
       </c>
       <c r="R58" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="V58" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AA58" t="s">
         <v>34</v>
@@ -6705,13 +6617,13 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I59" t="s">
         <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="V59" t="s">
         <v>13</v>
@@ -6722,42 +6634,42 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
       <c r="I60" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="R60" t="s">
         <v>13</v>
       </c>
       <c r="V60" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="AA60" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="I61" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="R61" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="V61" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AA61" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
@@ -6777,7 +6689,7 @@
         <v>16</v>
       </c>
       <c r="AA62" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
@@ -6790,7 +6702,7 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="AA64" t="s">
         <v>32</v>
@@ -6798,10 +6710,10 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="AA65" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
@@ -6814,7 +6726,7 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
@@ -6831,7 +6743,7 @@
         <v>31</v>
       </c>
       <c r="O71" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="R71" t="s">
         <v>8</v>
@@ -6843,7 +6755,7 @@
         <v>31</v>
       </c>
       <c r="AG71" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
@@ -6871,7 +6783,7 @@
         <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>32</v>
@@ -6880,7 +6792,7 @@
         <v>10</v>
       </c>
       <c r="V73" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="AA73" t="s">
         <v>32</v>
@@ -6888,19 +6800,19 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D74" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>34</v>
       </c>
       <c r="R74" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="V74" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AA74" t="s">
         <v>34</v>
@@ -6908,19 +6820,19 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>32</v>
       </c>
       <c r="R75" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="V75" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="AA75" t="s">
         <v>32</v>
@@ -6931,30 +6843,30 @@
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="R76" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="V76" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AA76" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="R77" t="s">
         <v>13</v>
@@ -6963,21 +6875,21 @@
         <v>16</v>
       </c>
       <c r="AA77" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="R78" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="AA78" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
@@ -6985,21 +6897,21 @@
         <v>16</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="R79" t="s">
         <v>16</v>
       </c>
       <c r="AA79" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I80" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AA80" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
@@ -7012,10 +6924,10 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="AA82" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
@@ -7086,19 +6998,19 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I90" t="s">
         <v>32</v>
       </c>
       <c r="R90" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="V90" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="AA90" t="s">
         <v>32</v>
@@ -7106,19 +7018,19 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I91" t="s">
         <v>34</v>
       </c>
       <c r="R91" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="V91" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AA91" t="s">
         <v>34</v>
@@ -7129,16 +7041,16 @@
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="I92" t="s">
         <v>32</v>
       </c>
       <c r="R92" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="V92" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="AA92" t="s">
         <v>32</v>
@@ -7146,42 +7058,42 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D93" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I93" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="R93" t="s">
         <v>13</v>
       </c>
       <c r="V93" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="AA93" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D94" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="I94" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="R94" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="V94" t="s">
         <v>13</v>
       </c>
       <c r="AA94" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
@@ -7198,10 +7110,10 @@
         <v>16</v>
       </c>
       <c r="V95" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AA95" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
@@ -7217,7 +7129,7 @@
     </row>
     <row r="97" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I97" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="AA97" t="s">
         <v>32</v>
@@ -7225,10 +7137,10 @@
     </row>
     <row r="98" spans="9:27" x14ac:dyDescent="0.25">
       <c r="I98" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="AA98" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="9:27" x14ac:dyDescent="0.25">
@@ -7249,7 +7161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -7260,161 +7172,161 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="L1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="R1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="AA1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="L2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="R2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="L3" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="L4" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L5" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="C13" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="H14" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7434,10 +7346,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="M1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="Y1" t="s">
         <v>66</v>
@@ -7462,26 +7374,26 @@
         <v>10</v>
       </c>
       <c r="Y3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="M4" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="Y4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="Y5" t="s">
         <v>68</v>
@@ -7492,15 +7404,15 @@
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="Y6" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
@@ -7511,10 +7423,10 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="M8" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -7530,32 +7442,32 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y10" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y11" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y12" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y13" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y14" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y15" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -7565,53 +7477,53 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y19" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y21" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="G22" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="L22" t="str">
         <f>Y2</f>
         <v>1=&gt;4</v>
       </c>
       <c r="M22" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="P22" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="S22" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="X22" t="str">
         <f>Y10</f>
         <v>1=&gt;3</v>
       </c>
       <c r="Y22" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -7634,7 +7546,7 @@
         <v>33</v>
       </c>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -7657,24 +7569,24 @@
         <v>32</v>
       </c>
       <c r="Y24" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="S25" t="s">
         <v>34</v>
@@ -7685,56 +7597,56 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="P26" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
       </c>
       <c r="Y26" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="S27" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="G28" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s">
         <v>13</v>
@@ -7743,7 +7655,7 @@
         <v>13</v>
       </c>
       <c r="S28" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -7751,19 +7663,19 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G29" t="s">
         <v>37</v>
       </c>
       <c r="M29" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="S29" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -7788,7 +7700,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="S31" t="s">
         <v>32</v>
@@ -7796,10 +7708,10 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="S32" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -7812,18 +7724,18 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D43" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="G43" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="L43" t="str">
         <f>Y3</f>
@@ -7833,10 +7745,10 @@
         <v>9</v>
       </c>
       <c r="P43" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="S43" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="X43" t="str">
         <f>Y11</f>
@@ -7874,7 +7786,7 @@
         <v>32</v>
       </c>
       <c r="M45" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="P45" t="s">
         <v>10</v>
@@ -7885,19 +7797,19 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G46" t="s">
         <v>34</v>
       </c>
       <c r="M46" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="S46" t="s">
         <v>34</v>
@@ -7905,10 +7817,10 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -7917,7 +7829,7 @@
         <v>13</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="S47" t="s">
         <v>32</v>
@@ -7925,22 +7837,22 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="M48" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="S48" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -7948,27 +7860,27 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="G49" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M49" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="P49" t="s">
         <v>13</v>
       </c>
       <c r="S49" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -7977,10 +7889,10 @@
         <v>16</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="S50" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
@@ -8002,7 +7914,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="S52" t="s">
         <v>32</v>
@@ -8010,10 +7922,10 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="S53" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
@@ -8031,31 +7943,31 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D64" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="G64" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="L64" t="str">
         <f>Y4</f>
         <v>3=&gt;4</v>
       </c>
       <c r="M64" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="P64" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="S64" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="X64" t="str">
         <f>Y12</f>
@@ -8073,7 +7985,7 @@
         <v>33</v>
       </c>
       <c r="M65" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="P65" t="s">
         <v>9</v>
@@ -8104,10 +8016,10 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D67" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G67" t="s">
         <v>34</v>
@@ -8116,7 +8028,7 @@
         <v>10</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="S67" t="s">
         <v>34</v>
@@ -8124,19 +8036,19 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D68" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
       </c>
       <c r="M68" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="S68" t="s">
         <v>32</v>
@@ -8144,22 +8056,22 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="M69" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="S69" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -8167,10 +8079,10 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="G70" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M70" t="s">
         <v>13</v>
@@ -8179,7 +8091,7 @@
         <v>13</v>
       </c>
       <c r="S70" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -8187,16 +8099,16 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G71" t="s">
         <v>37</v>
       </c>
       <c r="M71" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="S71" t="s">
         <v>32</v>
@@ -8216,12 +8128,12 @@
         <v>16</v>
       </c>
       <c r="S72" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="S73" t="s">
         <v>37</v>
@@ -8229,7 +8141,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="S74" t="s">
         <v>32</v>
@@ -8240,48 +8152,48 @@
         <v>40</v>
       </c>
       <c r="S75" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="S76" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+    <row r="85" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="L85" s="10" t="str">
+      <c r="D85" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="L85" s="5" t="str">
         <f>Y5</f>
         <v>4=&gt;5</v>
       </c>
-      <c r="M85" s="10" t="s">
+      <c r="M85" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P85" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="S85" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="X85" s="10" t="str">
+      <c r="P85" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="S85" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="X85" s="5" t="str">
         <f>Y13</f>
         <v>4=&gt;3</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -8290,7 +8202,7 @@
         <v>32</v>
       </c>
       <c r="M86" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="P86" t="s">
         <v>9</v>
@@ -8324,7 +8236,7 @@
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8333,7 +8245,7 @@
         <v>10</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="S88" t="s">
         <v>34</v>
@@ -8341,19 +8253,19 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G89" t="s">
         <v>34</v>
       </c>
       <c r="M89" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="P89" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="S89" t="s">
         <v>32</v>
@@ -8361,7 +8273,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
@@ -8373,10 +8285,10 @@
         <v>13</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="S90" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
@@ -8384,39 +8296,39 @@
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="G91" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="M91" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="P91" t="s">
         <v>13</v>
       </c>
       <c r="S91" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G92" t="s">
+        <v>205</v>
+      </c>
+      <c r="M92" t="s">
+        <v>191</v>
+      </c>
+      <c r="P92" t="s">
+        <v>190</v>
+      </c>
+      <c r="S92" t="s">
         <v>221</v>
-      </c>
-      <c r="M92" t="s">
-        <v>207</v>
-      </c>
-      <c r="P92" t="s">
-        <v>206</v>
-      </c>
-      <c r="S92" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
@@ -8449,15 +8361,15 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
+        <v>206</v>
+      </c>
+      <c r="S95" t="s">
         <v>222</v>
-      </c>
-      <c r="S95" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="S96" t="s">
         <v>40</v>
@@ -8470,7 +8382,7 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
@@ -8478,10 +8390,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="G106" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="L106" t="str">
         <f>Y6</f>
@@ -8491,10 +8403,10 @@
         <v>9</v>
       </c>
       <c r="P106" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="S106" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="X106" t="str">
         <f>Y14</f>
@@ -8523,7 +8435,7 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
@@ -8532,7 +8444,7 @@
         <v>32</v>
       </c>
       <c r="M108" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="P108" t="s">
         <v>10</v>
@@ -8543,19 +8455,19 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D109" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G109" t="s">
         <v>34</v>
       </c>
       <c r="M109" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="P109" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="S109" t="s">
         <v>34</v>
@@ -8563,19 +8475,19 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D110" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G110" t="s">
         <v>32</v>
       </c>
       <c r="M110" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="P110" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="S110" t="s">
         <v>32</v>
@@ -8583,22 +8495,22 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="M111" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="P111" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="S111" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
@@ -8606,10 +8518,10 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="G112" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M112" t="s">
         <v>16</v>
@@ -8618,21 +8530,21 @@
         <v>13</v>
       </c>
       <c r="S112" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G113" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="P113" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="S113" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
@@ -8640,21 +8552,21 @@
         <v>16</v>
       </c>
       <c r="G114" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="P114" t="s">
         <v>16</v>
       </c>
       <c r="S114" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="S115" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
@@ -8667,34 +8579,34 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="S117" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D127" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="G127" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="L127" t="str">
         <f>Y7</f>
         <v>6=&gt;4</v>
       </c>
       <c r="M127" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="P127" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="S127" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="X127" t="str">
         <f>Y15</f>
@@ -8743,19 +8655,19 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D130" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G130" t="s">
         <v>32</v>
       </c>
       <c r="M130" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="P130" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="S130" t="s">
         <v>34</v>
@@ -8763,19 +8675,19 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D131" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G131" t="s">
         <v>34</v>
       </c>
       <c r="M131" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="P131" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="S131" t="s">
         <v>32</v>
@@ -8783,7 +8695,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
@@ -8792,53 +8704,53 @@
         <v>32</v>
       </c>
       <c r="M132" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="P132" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="S132" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D133" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="G133" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="M133" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="P133" t="s">
         <v>13</v>
       </c>
       <c r="S133" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D134" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G134" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="M134" t="s">
         <v>13</v>
       </c>
       <c r="P134" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="S134" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -8852,7 +8764,7 @@
         <v>37</v>
       </c>
       <c r="M135" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="P135" t="s">
         <v>16</v>
@@ -8877,15 +8789,15 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
+        <v>206</v>
+      </c>
+      <c r="S137" t="s">
         <v>222</v>
-      </c>
-      <c r="S137" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="S138" t="s">
         <v>40</v>

--- a/Project2/investigation.xlsx
+++ b/Project2/investigation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5096" uniqueCount="701">
   <si>
     <t>The correct answer is: 5</t>
   </si>
@@ -1649,6 +1651,489 @@
   </si>
   <si>
     <t>0.tf-diff-angle : 270 - tf-diff-angle : 45</t>
+  </si>
+  <si>
+    <t>A.0.size=large</t>
+  </si>
+  <si>
+    <t>A.1.shape=circle</t>
+  </si>
+  <si>
+    <t>B.0.size=large</t>
+  </si>
+  <si>
+    <t>A.2.inside=A,B</t>
+  </si>
+  <si>
+    <t>maxsize=3</t>
+  </si>
+  <si>
+    <t>A.2.shape=circle</t>
+  </si>
+  <si>
+    <t>B.0.shape=circle</t>
+  </si>
+  <si>
+    <t>B.1.shape=circle</t>
+  </si>
+  <si>
+    <t>B.1.inside=D</t>
+  </si>
+  <si>
+    <t>B.1.size=medium</t>
+  </si>
+  <si>
+    <t>A.1.size=medium</t>
+  </si>
+  <si>
+    <t>tf-scale_changed=1</t>
+  </si>
+  <si>
+    <t>A.0.shape=circle</t>
+  </si>
+  <si>
+    <t>A.2.size=small</t>
+  </si>
+  <si>
+    <t>C.1.shape=circle</t>
+  </si>
+  <si>
+    <t>1.3.size=medium</t>
+  </si>
+  <si>
+    <t>C.5.shape=circle</t>
+  </si>
+  <si>
+    <t>1.5.shape=circle</t>
+  </si>
+  <si>
+    <t>1.5.inside=H</t>
+  </si>
+  <si>
+    <t>C.5.size=small</t>
+  </si>
+  <si>
+    <t>1.3.shape=circle</t>
+  </si>
+  <si>
+    <t>C.5.inside=F</t>
+  </si>
+  <si>
+    <t>C.1.size=large</t>
+  </si>
+  <si>
+    <t>1.5.size=small</t>
+  </si>
+  <si>
+    <t>2.5.size=small</t>
+  </si>
+  <si>
+    <t>2.1.shape=circle</t>
+  </si>
+  <si>
+    <t>2.5.inside=J</t>
+  </si>
+  <si>
+    <t>2.5.shape=circle</t>
+  </si>
+  <si>
+    <t>2.1.size=large</t>
+  </si>
+  <si>
+    <t>3.3.inside=L</t>
+  </si>
+  <si>
+    <t>3.3.shape=circle</t>
+  </si>
+  <si>
+    <t>3.1.size=large</t>
+  </si>
+  <si>
+    <t>3.3.size=medium</t>
+  </si>
+  <si>
+    <t>3.1.shape=circle</t>
+  </si>
+  <si>
+    <t>4.5.shape=circle</t>
+  </si>
+  <si>
+    <t>4.5.size=small</t>
+  </si>
+  <si>
+    <t>5.3.shape=circle</t>
+  </si>
+  <si>
+    <t>tf-scale_changed=2</t>
+  </si>
+  <si>
+    <t>5.3.size=medium</t>
+  </si>
+  <si>
+    <t>6.1.size=large</t>
+  </si>
+  <si>
+    <t>6.1.shape=circle</t>
+  </si>
+  <si>
+    <t>A.0.size : large - C.0.size : null</t>
+  </si>
+  <si>
+    <t>A.1.shape : circle - C.1.shape : circle</t>
+  </si>
+  <si>
+    <t>tf-shpe_deleted : 1 - tf-shpe_deleted : null</t>
+  </si>
+  <si>
+    <t>B.0.size : large - 1.0.size : null</t>
+  </si>
+  <si>
+    <t>A.2.inside : A,B - C.2.inside : null</t>
+  </si>
+  <si>
+    <t>count_changed : -1 - count_changed : 0</t>
+  </si>
+  <si>
+    <t>maxsize : 3 - maxsize : 2</t>
+  </si>
+  <si>
+    <t>A.2.shape : circle - C.2.shape : null</t>
+  </si>
+  <si>
+    <t>B.0.shape : circle - 1.0.shape : null</t>
+  </si>
+  <si>
+    <t>B.1.shape : circle - 1.1.shape : null</t>
+  </si>
+  <si>
+    <t>B.1.inside : D - 1.1.inside : null</t>
+  </si>
+  <si>
+    <t>B.1.size : medium - 1.1.size : null</t>
+  </si>
+  <si>
+    <t>A.1.size : medium - C.1.size : large</t>
+  </si>
+  <si>
+    <t>tf-scale_changed : 1 - tf-scale_changed : 1</t>
+  </si>
+  <si>
+    <t>A.0.shape : circle - C.0.shape : null</t>
+  </si>
+  <si>
+    <t>A.2.size : small - C.2.size : null</t>
+  </si>
+  <si>
+    <t>Expected Objects: 2</t>
+  </si>
+  <si>
+    <t>B.0.size : large - 2.0.size : null</t>
+  </si>
+  <si>
+    <t>B.0.shape : circle - 2.0.shape : null</t>
+  </si>
+  <si>
+    <t>B.1.shape : circle - 2.1.shape : circle</t>
+  </si>
+  <si>
+    <t>B.1.inside : D - 2.1.inside : null</t>
+  </si>
+  <si>
+    <t>B.1.size : medium - 2.1.size : large</t>
+  </si>
+  <si>
+    <t>tf-scale_changed : 1 - tf-scale_changed : null</t>
+  </si>
+  <si>
+    <t>B.0.size : large - 3.0.size : null</t>
+  </si>
+  <si>
+    <t>B.0.shape : circle - 3.0.shape : null</t>
+  </si>
+  <si>
+    <t>B.1.shape : circle - 3.1.shape : circle</t>
+  </si>
+  <si>
+    <t>B.1.inside : D - 3.1.inside : null</t>
+  </si>
+  <si>
+    <t>B.1.size : medium - 3.1.size : large</t>
+  </si>
+  <si>
+    <t>tf-shpe_deleted : 1 - tf-shpe_deleted : 1</t>
+  </si>
+  <si>
+    <t>B.0.size : large - 4.0.size : null</t>
+  </si>
+  <si>
+    <t>count_changed : -1 - count_changed : -1</t>
+  </si>
+  <si>
+    <t>B.0.shape : circle - 4.0.shape : null</t>
+  </si>
+  <si>
+    <t>B.1.shape : circle - 4.1.shape : null</t>
+  </si>
+  <si>
+    <t>B.1.inside : D - 4.1.inside : null</t>
+  </si>
+  <si>
+    <t>B.1.size : medium - 4.1.size : null</t>
+  </si>
+  <si>
+    <t>B.0.size : large - 5.0.size : null</t>
+  </si>
+  <si>
+    <t>B.0.shape : circle - 5.0.shape : null</t>
+  </si>
+  <si>
+    <t>B.1.shape : circle - 5.1.shape : null</t>
+  </si>
+  <si>
+    <t>B.1.inside : D - 5.1.inside : null</t>
+  </si>
+  <si>
+    <t>B.1.size : medium - 5.1.size : null</t>
+  </si>
+  <si>
+    <t>tf-scale_changed : 1 - tf-scale_changed : 2</t>
+  </si>
+  <si>
+    <t>B.0.size : large - 6.0.size : null</t>
+  </si>
+  <si>
+    <t>B.0.shape : circle - 6.0.shape : null</t>
+  </si>
+  <si>
+    <t>B.1.shape : circle - 6.1.shape : circle</t>
+  </si>
+  <si>
+    <t>B.1.inside : D - 6.1.inside : null</t>
+  </si>
+  <si>
+    <t>B.1.size : medium - 6.1.size : large</t>
+  </si>
+  <si>
+    <t>tf-scaled=scaled</t>
+  </si>
+  <si>
+    <t>C.1.inside=F</t>
+  </si>
+  <si>
+    <t>C.1.size=small</t>
+  </si>
+  <si>
+    <t>C.0.size=large</t>
+  </si>
+  <si>
+    <t>1.1.shape=circle</t>
+  </si>
+  <si>
+    <t>1.0.shape=circle</t>
+  </si>
+  <si>
+    <t>1.0.size=medium</t>
+  </si>
+  <si>
+    <t>1.1.size=small</t>
+  </si>
+  <si>
+    <t>1.1.inside=H</t>
+  </si>
+  <si>
+    <t>2.0.shape=circle</t>
+  </si>
+  <si>
+    <t>2.1.size=small</t>
+  </si>
+  <si>
+    <t>2.1.inside=J</t>
+  </si>
+  <si>
+    <t>2.0.size=large</t>
+  </si>
+  <si>
+    <t>3.1.size=medium</t>
+  </si>
+  <si>
+    <t>3.0.size=large</t>
+  </si>
+  <si>
+    <t>3.1.inside=L</t>
+  </si>
+  <si>
+    <t>4.0.size=small</t>
+  </si>
+  <si>
+    <t>4.0.shape=circle</t>
+  </si>
+  <si>
+    <t>5.0.size=medium</t>
+  </si>
+  <si>
+    <t>6.0.size=large</t>
+  </si>
+  <si>
+    <t>6.0.shape=circle</t>
+  </si>
+  <si>
+    <t>C.1.shape : circle - 1.1.shape : circle</t>
+  </si>
+  <si>
+    <t>A.1.shape : circle - C.1.shape : null</t>
+  </si>
+  <si>
+    <t>tf-scaled : scaled - tf-scaled : scaled</t>
+  </si>
+  <si>
+    <t>C.1.inside : F - 1.1.inside : H</t>
+  </si>
+  <si>
+    <t>C.0.shape : circle - 1.0.shape : circle</t>
+  </si>
+  <si>
+    <t>A.1.size : medium - C.1.size : null</t>
+  </si>
+  <si>
+    <t>C.1.size : small - 1.1.size : small</t>
+  </si>
+  <si>
+    <t>tf-scale_changed : 2 - tf-scale_changed : 2</t>
+  </si>
+  <si>
+    <t>C.0.size : large - 1.0.size : medium</t>
+  </si>
+  <si>
+    <t>C.1.shape : circle - 2.1.shape : circle</t>
+  </si>
+  <si>
+    <t>C.1.inside : F - 2.1.inside : J</t>
+  </si>
+  <si>
+    <t>C.0.shape : circle - 2.0.shape : circle</t>
+  </si>
+  <si>
+    <t>C.1.size : small - 2.1.size : small</t>
+  </si>
+  <si>
+    <t>tf-scale_changed : 2 - tf-scale_changed : 1</t>
+  </si>
+  <si>
+    <t>C.0.size : large - 2.0.size : large</t>
+  </si>
+  <si>
+    <t>C.1.shape : circle - 3.1.shape : circle</t>
+  </si>
+  <si>
+    <t>tf-scaled : scaled - tf-scaled : null</t>
+  </si>
+  <si>
+    <t>C.1.inside : F - 3.1.inside : L</t>
+  </si>
+  <si>
+    <t>C.1.size : small - 3.1.size : medium</t>
+  </si>
+  <si>
+    <t>tf-scale_changed : 2 - tf-scale_changed : null</t>
+  </si>
+  <si>
+    <t>C.0.size : large - 3.0.size : large</t>
+  </si>
+  <si>
+    <t>C.1.shape : circle - 4.1.shape : null</t>
+  </si>
+  <si>
+    <t>C.1.inside : F - 4.1.inside : null</t>
+  </si>
+  <si>
+    <t>C.0.shape : circle - 4.0.shape : circle</t>
+  </si>
+  <si>
+    <t>C.1.size : small - 4.1.size : null</t>
+  </si>
+  <si>
+    <t>C.0.size : large - 4.0.size : small</t>
+  </si>
+  <si>
+    <t>C.1.shape : circle - 5.1.shape : null</t>
+  </si>
+  <si>
+    <t>C.1.inside : F - 5.1.inside : null</t>
+  </si>
+  <si>
+    <t>C.1.size : small - 5.1.size : null</t>
+  </si>
+  <si>
+    <t>C.0.size : large - 5.0.size : medium</t>
+  </si>
+  <si>
+    <t>C.1.shape : circle - 6.1.shape : null</t>
+  </si>
+  <si>
+    <t>C.1.inside : F - 6.1.inside : null</t>
+  </si>
+  <si>
+    <t>C.0.shape : circle - 6.0.shape : circle</t>
+  </si>
+  <si>
+    <t>C.1.size : small - 6.1.size : null</t>
+  </si>
+  <si>
+    <t>C.0.size : large - 6.0.size : large</t>
+  </si>
+  <si>
+    <t>1=&gt;13</t>
+  </si>
+  <si>
+    <t>2=&gt;13</t>
+  </si>
+  <si>
+    <t>3=&gt;11</t>
+  </si>
+  <si>
+    <t>5=&gt;13</t>
+  </si>
+  <si>
+    <t>6=&gt;11</t>
+  </si>
+  <si>
+    <t>BUILD SUCCESSFUL (total time: 1 second)</t>
+  </si>
+  <si>
+    <t>2x2 Basic Problem 09</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>shape:circle</t>
+  </si>
+  <si>
+    <t>size:large</t>
+  </si>
+  <si>
+    <t>size:medium</t>
+  </si>
+  <si>
+    <t>size:small</t>
+  </si>
+  <si>
+    <t>inside:A,B</t>
+  </si>
+  <si>
+    <t>inside:D</t>
+  </si>
+  <si>
+    <t>inside:F</t>
+  </si>
+  <si>
+    <t>inside:H</t>
+  </si>
+  <si>
+    <t>inside:J</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +2149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1743,8 +2228,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1767,11 +2258,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1792,6 +2363,16 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1804,6 +2385,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>510360</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4981576"/>
+          <a:ext cx="4777560" cy="2687378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4117,7 +4747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -5825,6 +6455,3869 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD1060"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>540</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>540</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>541</v>
+      </c>
+      <c r="O6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>314</v>
+      </c>
+      <c r="O7" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="O8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>542</v>
+      </c>
+      <c r="O9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>543</v>
+      </c>
+      <c r="O10" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="O11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>544</v>
+      </c>
+      <c r="O12" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>545</v>
+      </c>
+      <c r="O13" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>546</v>
+      </c>
+      <c r="O14" t="s">
+        <v>628</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="O15" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>547</v>
+      </c>
+      <c r="O16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>548</v>
+      </c>
+      <c r="O17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>549</v>
+      </c>
+      <c r="O18" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="O19" t="s">
+        <v>550</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>550</v>
+      </c>
+      <c r="O20" t="s">
+        <v>629</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>551</v>
+      </c>
+      <c r="O21" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>552</v>
+      </c>
+      <c r="O22" t="s">
+        <v>552</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>553</v>
+      </c>
+      <c r="O23" t="s">
+        <v>630</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" t="s">
+        <v>553</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" t="s">
+        <v>10</v>
+      </c>
+      <c r="R40" t="s">
+        <v>9</v>
+      </c>
+      <c r="U40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>581</v>
+      </c>
+      <c r="O41" t="s">
+        <v>314</v>
+      </c>
+      <c r="R41" t="s">
+        <v>540</v>
+      </c>
+      <c r="U41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>555</v>
+      </c>
+      <c r="D42" t="s">
+        <v>541</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O42" t="s">
+        <v>542</v>
+      </c>
+      <c r="R42" t="s">
+        <v>10</v>
+      </c>
+      <c r="U42" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" t="s">
+        <v>314</v>
+      </c>
+      <c r="H43" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" t="s">
+        <v>631</v>
+      </c>
+      <c r="R43" t="s">
+        <v>541</v>
+      </c>
+      <c r="U43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>556</v>
+      </c>
+      <c r="D44" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" t="s">
+        <v>582</v>
+      </c>
+      <c r="O44" t="s">
+        <v>632</v>
+      </c>
+      <c r="R44" t="s">
+        <v>314</v>
+      </c>
+      <c r="U44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="H45" t="s">
+        <v>365</v>
+      </c>
+      <c r="O45" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" t="s">
+        <v>201</v>
+      </c>
+      <c r="U45" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>557</v>
+      </c>
+      <c r="D46" t="s">
+        <v>543</v>
+      </c>
+      <c r="H46" t="s">
+        <v>583</v>
+      </c>
+      <c r="O46" t="s">
+        <v>627</v>
+      </c>
+      <c r="R46" t="s">
+        <v>543</v>
+      </c>
+      <c r="U46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" t="s">
+        <v>202</v>
+      </c>
+      <c r="H47" t="s">
+        <v>584</v>
+      </c>
+      <c r="O47" t="s">
+        <v>319</v>
+      </c>
+      <c r="R47" t="s">
+        <v>202</v>
+      </c>
+      <c r="U47" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>558</v>
+      </c>
+      <c r="D48" t="s">
+        <v>544</v>
+      </c>
+      <c r="H48" t="s">
+        <v>585</v>
+      </c>
+      <c r="O48" t="s">
+        <v>633</v>
+      </c>
+      <c r="R48" t="s">
+        <v>627</v>
+      </c>
+      <c r="U48" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>559</v>
+      </c>
+      <c r="D49" t="s">
+        <v>545</v>
+      </c>
+      <c r="H49" t="s">
+        <v>586</v>
+      </c>
+      <c r="O49" t="s">
+        <v>634</v>
+      </c>
+      <c r="R49" t="s">
+        <v>544</v>
+      </c>
+      <c r="U49" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>560</v>
+      </c>
+      <c r="D50" t="s">
+        <v>546</v>
+      </c>
+      <c r="H50" t="s">
+        <v>587</v>
+      </c>
+      <c r="O50" t="s">
+        <v>546</v>
+      </c>
+      <c r="R50" t="s">
+        <v>628</v>
+      </c>
+      <c r="U50" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" t="s">
+        <v>320</v>
+      </c>
+      <c r="H51" t="s">
+        <v>588</v>
+      </c>
+      <c r="O51" t="s">
+        <v>548</v>
+      </c>
+      <c r="R51" t="s">
+        <v>545</v>
+      </c>
+      <c r="U51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>561</v>
+      </c>
+      <c r="D52" t="s">
+        <v>547</v>
+      </c>
+      <c r="H52" t="s">
+        <v>589</v>
+      </c>
+      <c r="O52" t="s">
+        <v>547</v>
+      </c>
+      <c r="R52" t="s">
+        <v>320</v>
+      </c>
+      <c r="U52" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>562</v>
+      </c>
+      <c r="D53" t="s">
+        <v>548</v>
+      </c>
+      <c r="H53" t="s">
+        <v>422</v>
+      </c>
+      <c r="O53" t="s">
+        <v>549</v>
+      </c>
+      <c r="R53" t="s">
+        <v>117</v>
+      </c>
+      <c r="U53" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>551</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="H54" t="s">
+        <v>590</v>
+      </c>
+      <c r="O54" t="s">
+        <v>324</v>
+      </c>
+      <c r="R54" t="s">
+        <v>324</v>
+      </c>
+      <c r="U54" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>563</v>
+      </c>
+      <c r="D55" t="s">
+        <v>324</v>
+      </c>
+      <c r="H55" t="s">
+        <v>591</v>
+      </c>
+      <c r="O55" t="s">
+        <v>577</v>
+      </c>
+      <c r="R55" t="s">
+        <v>550</v>
+      </c>
+      <c r="U55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="H56" t="s">
+        <v>592</v>
+      </c>
+      <c r="O56" t="s">
+        <v>635</v>
+      </c>
+      <c r="R56" t="s">
+        <v>629</v>
+      </c>
+      <c r="U56" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>551</v>
+      </c>
+      <c r="H57" t="s">
+        <v>375</v>
+      </c>
+      <c r="O57" t="s">
+        <v>16</v>
+      </c>
+      <c r="R57" t="s">
+        <v>577</v>
+      </c>
+      <c r="U57" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>552</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="R58" t="s">
+        <v>552</v>
+      </c>
+      <c r="U58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D59" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="H59" t="s">
+        <v>593</v>
+      </c>
+      <c r="R59" t="s">
+        <v>630</v>
+      </c>
+      <c r="U59" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>594</v>
+      </c>
+      <c r="R60" t="s">
+        <v>553</v>
+      </c>
+      <c r="U60" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="R61" t="s">
+        <v>16</v>
+      </c>
+      <c r="U61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>595</v>
+      </c>
+      <c r="U62" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>596</v>
+      </c>
+      <c r="U63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>597</v>
+      </c>
+      <c r="U64" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>238</v>
+      </c>
+      <c r="U65" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>238</v>
+      </c>
+      <c r="U66" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>238</v>
+      </c>
+      <c r="U67" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>554</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" t="s">
+        <v>33</v>
+      </c>
+      <c r="O75" t="s">
+        <v>9</v>
+      </c>
+      <c r="R75" t="s">
+        <v>554</v>
+      </c>
+      <c r="U75" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>540</v>
+      </c>
+      <c r="H76" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" t="s">
+        <v>9</v>
+      </c>
+      <c r="U76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>581</v>
+      </c>
+      <c r="O77" t="s">
+        <v>314</v>
+      </c>
+      <c r="R77" t="s">
+        <v>540</v>
+      </c>
+      <c r="U77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>314</v>
+      </c>
+      <c r="D78" t="s">
+        <v>541</v>
+      </c>
+      <c r="H78" t="s">
+        <v>34</v>
+      </c>
+      <c r="O78" t="s">
+        <v>542</v>
+      </c>
+      <c r="R78" t="s">
+        <v>10</v>
+      </c>
+      <c r="U78" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>556</v>
+      </c>
+      <c r="D79" t="s">
+        <v>314</v>
+      </c>
+      <c r="H79" t="s">
+        <v>32</v>
+      </c>
+      <c r="O79" t="s">
+        <v>565</v>
+      </c>
+      <c r="R79" t="s">
+        <v>541</v>
+      </c>
+      <c r="U79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>564</v>
+      </c>
+      <c r="D80" t="s">
+        <v>201</v>
+      </c>
+      <c r="H80" t="s">
+        <v>582</v>
+      </c>
+      <c r="O80" t="s">
+        <v>13</v>
+      </c>
+      <c r="R80" t="s">
+        <v>314</v>
+      </c>
+      <c r="U80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>565</v>
+      </c>
+      <c r="D81" t="s">
+        <v>542</v>
+      </c>
+      <c r="H81" t="s">
+        <v>365</v>
+      </c>
+      <c r="O81" t="s">
+        <v>636</v>
+      </c>
+      <c r="R81" t="s">
+        <v>201</v>
+      </c>
+      <c r="U81" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>543</v>
+      </c>
+      <c r="H82" t="s">
+        <v>583</v>
+      </c>
+      <c r="O82" t="s">
+        <v>627</v>
+      </c>
+      <c r="R82" t="s">
+        <v>543</v>
+      </c>
+      <c r="U82" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>566</v>
+      </c>
+      <c r="D83" t="s">
+        <v>202</v>
+      </c>
+      <c r="H83" t="s">
+        <v>598</v>
+      </c>
+      <c r="O83" t="s">
+        <v>319</v>
+      </c>
+      <c r="R83" t="s">
+        <v>202</v>
+      </c>
+      <c r="U83" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>319</v>
+      </c>
+      <c r="D84" t="s">
+        <v>544</v>
+      </c>
+      <c r="H84" t="s">
+        <v>585</v>
+      </c>
+      <c r="O84" t="s">
+        <v>637</v>
+      </c>
+      <c r="R84" t="s">
+        <v>627</v>
+      </c>
+      <c r="U84" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>567</v>
+      </c>
+      <c r="D85" t="s">
+        <v>545</v>
+      </c>
+      <c r="H85" t="s">
+        <v>586</v>
+      </c>
+      <c r="O85" t="s">
+        <v>546</v>
+      </c>
+      <c r="R85" t="s">
+        <v>544</v>
+      </c>
+      <c r="U85" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>559</v>
+      </c>
+      <c r="D86" t="s">
+        <v>546</v>
+      </c>
+      <c r="H86" t="s">
+        <v>587</v>
+      </c>
+      <c r="O86" t="s">
+        <v>548</v>
+      </c>
+      <c r="R86" t="s">
+        <v>628</v>
+      </c>
+      <c r="U86" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>568</v>
+      </c>
+      <c r="D87" t="s">
+        <v>320</v>
+      </c>
+      <c r="H87" t="s">
+        <v>588</v>
+      </c>
+      <c r="O87" t="s">
+        <v>547</v>
+      </c>
+      <c r="R87" t="s">
+        <v>545</v>
+      </c>
+      <c r="U87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>324</v>
+      </c>
+      <c r="D88" t="s">
+        <v>547</v>
+      </c>
+      <c r="H88" t="s">
+        <v>599</v>
+      </c>
+      <c r="O88" t="s">
+        <v>549</v>
+      </c>
+      <c r="R88" t="s">
+        <v>320</v>
+      </c>
+      <c r="U88" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>561</v>
+      </c>
+      <c r="D89" t="s">
+        <v>548</v>
+      </c>
+      <c r="H89" t="s">
+        <v>422</v>
+      </c>
+      <c r="O89" t="s">
+        <v>324</v>
+      </c>
+      <c r="R89" t="s">
+        <v>117</v>
+      </c>
+      <c r="U89" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>562</v>
+      </c>
+      <c r="D90" t="s">
+        <v>549</v>
+      </c>
+      <c r="H90" t="s">
+        <v>600</v>
+      </c>
+      <c r="O90" t="s">
+        <v>551</v>
+      </c>
+      <c r="R90" t="s">
+        <v>324</v>
+      </c>
+      <c r="U90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>324</v>
+      </c>
+      <c r="H91" t="s">
+        <v>601</v>
+      </c>
+      <c r="O91" t="s">
+        <v>638</v>
+      </c>
+      <c r="R91" t="s">
+        <v>550</v>
+      </c>
+      <c r="U91" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>550</v>
+      </c>
+      <c r="H92" t="s">
+        <v>602</v>
+      </c>
+      <c r="O92" t="s">
+        <v>639</v>
+      </c>
+      <c r="R92" t="s">
+        <v>629</v>
+      </c>
+      <c r="U92" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>551</v>
+      </c>
+      <c r="H93" t="s">
+        <v>375</v>
+      </c>
+      <c r="O93" t="s">
+        <v>16</v>
+      </c>
+      <c r="R93" t="s">
+        <v>577</v>
+      </c>
+      <c r="U93" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>552</v>
+      </c>
+      <c r="H94" t="s">
+        <v>32</v>
+      </c>
+      <c r="R94" t="s">
+        <v>552</v>
+      </c>
+      <c r="U94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>553</v>
+      </c>
+      <c r="H95" t="s">
+        <v>593</v>
+      </c>
+      <c r="R95" t="s">
+        <v>630</v>
+      </c>
+      <c r="U95" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>603</v>
+      </c>
+      <c r="R96" t="s">
+        <v>553</v>
+      </c>
+      <c r="U96" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>595</v>
+      </c>
+      <c r="R97" t="s">
+        <v>16</v>
+      </c>
+      <c r="U97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>596</v>
+      </c>
+      <c r="U98" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>597</v>
+      </c>
+      <c r="U99" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>238</v>
+      </c>
+      <c r="U100" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>238</v>
+      </c>
+      <c r="U101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>237</v>
+      </c>
+      <c r="U102" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U103" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>554</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+      <c r="O111" t="s">
+        <v>9</v>
+      </c>
+      <c r="R111" t="s">
+        <v>554</v>
+      </c>
+      <c r="U111" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>540</v>
+      </c>
+      <c r="H112" t="s">
+        <v>32</v>
+      </c>
+      <c r="O112" t="s">
+        <v>10</v>
+      </c>
+      <c r="R112" t="s">
+        <v>9</v>
+      </c>
+      <c r="U112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" t="s">
+        <v>581</v>
+      </c>
+      <c r="O113" t="s">
+        <v>314</v>
+      </c>
+      <c r="R113" t="s">
+        <v>540</v>
+      </c>
+      <c r="U113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>314</v>
+      </c>
+      <c r="D114" t="s">
+        <v>541</v>
+      </c>
+      <c r="H114" t="s">
+        <v>34</v>
+      </c>
+      <c r="O114" t="s">
+        <v>542</v>
+      </c>
+      <c r="R114" t="s">
+        <v>10</v>
+      </c>
+      <c r="U114" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>556</v>
+      </c>
+      <c r="D115" t="s">
+        <v>314</v>
+      </c>
+      <c r="H115" t="s">
+        <v>32</v>
+      </c>
+      <c r="O115" t="s">
+        <v>13</v>
+      </c>
+      <c r="R115" t="s">
+        <v>541</v>
+      </c>
+      <c r="U115" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>569</v>
+      </c>
+      <c r="D116" t="s">
+        <v>201</v>
+      </c>
+      <c r="H116" t="s">
+        <v>582</v>
+      </c>
+      <c r="O116" t="s">
+        <v>640</v>
+      </c>
+      <c r="R116" t="s">
+        <v>314</v>
+      </c>
+      <c r="U116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>570</v>
+      </c>
+      <c r="D117" t="s">
+        <v>542</v>
+      </c>
+      <c r="H117" t="s">
+        <v>365</v>
+      </c>
+      <c r="O117" t="s">
+        <v>123</v>
+      </c>
+      <c r="R117" t="s">
+        <v>201</v>
+      </c>
+      <c r="U117" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>543</v>
+      </c>
+      <c r="H118" t="s">
+        <v>583</v>
+      </c>
+      <c r="O118" t="s">
+        <v>641</v>
+      </c>
+      <c r="R118" t="s">
+        <v>543</v>
+      </c>
+      <c r="U118" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>571</v>
+      </c>
+      <c r="D119" t="s">
+        <v>202</v>
+      </c>
+      <c r="H119" t="s">
+        <v>604</v>
+      </c>
+      <c r="O119" t="s">
+        <v>319</v>
+      </c>
+      <c r="R119" t="s">
+        <v>202</v>
+      </c>
+      <c r="U119" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>319</v>
+      </c>
+      <c r="D120" t="s">
+        <v>544</v>
+      </c>
+      <c r="H120" t="s">
+        <v>585</v>
+      </c>
+      <c r="O120" t="s">
+        <v>546</v>
+      </c>
+      <c r="R120" t="s">
+        <v>627</v>
+      </c>
+      <c r="U120" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>559</v>
+      </c>
+      <c r="D121" t="s">
+        <v>545</v>
+      </c>
+      <c r="H121" t="s">
+        <v>586</v>
+      </c>
+      <c r="O121" t="s">
+        <v>548</v>
+      </c>
+      <c r="R121" t="s">
+        <v>544</v>
+      </c>
+      <c r="U121" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>561</v>
+      </c>
+      <c r="D122" t="s">
+        <v>546</v>
+      </c>
+      <c r="H122" t="s">
+        <v>587</v>
+      </c>
+      <c r="O122" t="s">
+        <v>547</v>
+      </c>
+      <c r="R122" t="s">
+        <v>628</v>
+      </c>
+      <c r="U122" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>572</v>
+      </c>
+      <c r="D123" t="s">
+        <v>320</v>
+      </c>
+      <c r="H123" t="s">
+        <v>588</v>
+      </c>
+      <c r="O123" t="s">
+        <v>549</v>
+      </c>
+      <c r="R123" t="s">
+        <v>545</v>
+      </c>
+      <c r="U123" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>562</v>
+      </c>
+      <c r="D124" t="s">
+        <v>547</v>
+      </c>
+      <c r="H124" t="s">
+        <v>605</v>
+      </c>
+      <c r="O124" t="s">
+        <v>324</v>
+      </c>
+      <c r="R124" t="s">
+        <v>320</v>
+      </c>
+      <c r="U124" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>573</v>
+      </c>
+      <c r="D125" t="s">
+        <v>548</v>
+      </c>
+      <c r="H125" t="s">
+        <v>422</v>
+      </c>
+      <c r="O125" t="s">
+        <v>573</v>
+      </c>
+      <c r="R125" t="s">
+        <v>117</v>
+      </c>
+      <c r="U125" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>551</v>
+      </c>
+      <c r="D126" t="s">
+        <v>549</v>
+      </c>
+      <c r="H126" t="s">
+        <v>606</v>
+      </c>
+      <c r="O126" t="s">
+        <v>642</v>
+      </c>
+      <c r="R126" t="s">
+        <v>324</v>
+      </c>
+      <c r="U126" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>324</v>
+      </c>
+      <c r="H127" t="s">
+        <v>607</v>
+      </c>
+      <c r="O127" t="s">
+        <v>16</v>
+      </c>
+      <c r="R127" t="s">
+        <v>550</v>
+      </c>
+      <c r="U127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>550</v>
+      </c>
+      <c r="H128" t="s">
+        <v>608</v>
+      </c>
+      <c r="R128" t="s">
+        <v>629</v>
+      </c>
+      <c r="U128" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="129" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>551</v>
+      </c>
+      <c r="H129" t="s">
+        <v>393</v>
+      </c>
+      <c r="R129" t="s">
+        <v>577</v>
+      </c>
+      <c r="U129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>552</v>
+      </c>
+      <c r="H130" t="s">
+        <v>593</v>
+      </c>
+      <c r="R130" t="s">
+        <v>552</v>
+      </c>
+      <c r="U130" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="131" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>553</v>
+      </c>
+      <c r="H131" t="s">
+        <v>594</v>
+      </c>
+      <c r="R131" t="s">
+        <v>630</v>
+      </c>
+      <c r="U131" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="132" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" t="s">
+        <v>32</v>
+      </c>
+      <c r="R132" t="s">
+        <v>553</v>
+      </c>
+      <c r="U132" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="133" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>595</v>
+      </c>
+      <c r="R133" t="s">
+        <v>16</v>
+      </c>
+      <c r="U133" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="134" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>596</v>
+      </c>
+      <c r="U134" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="135" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>597</v>
+      </c>
+      <c r="U135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>238</v>
+      </c>
+      <c r="U136" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="137" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>238</v>
+      </c>
+      <c r="U137" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>237</v>
+      </c>
+      <c r="U138" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>554</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="H147" t="s">
+        <v>33</v>
+      </c>
+      <c r="O147" t="s">
+        <v>9</v>
+      </c>
+      <c r="R147" t="s">
+        <v>554</v>
+      </c>
+      <c r="U147" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>574</v>
+      </c>
+      <c r="D148" t="s">
+        <v>540</v>
+      </c>
+      <c r="H148" t="s">
+        <v>32</v>
+      </c>
+      <c r="O148" t="s">
+        <v>10</v>
+      </c>
+      <c r="R148" t="s">
+        <v>9</v>
+      </c>
+      <c r="U148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149" t="s">
+        <v>581</v>
+      </c>
+      <c r="O149" t="s">
+        <v>347</v>
+      </c>
+      <c r="R149" t="s">
+        <v>540</v>
+      </c>
+      <c r="U149" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>541</v>
+      </c>
+      <c r="H150" t="s">
+        <v>34</v>
+      </c>
+      <c r="O150" t="s">
+        <v>201</v>
+      </c>
+      <c r="R150" t="s">
+        <v>10</v>
+      </c>
+      <c r="U150" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>575</v>
+      </c>
+      <c r="D151" t="s">
+        <v>314</v>
+      </c>
+      <c r="H151" t="s">
+        <v>32</v>
+      </c>
+      <c r="O151" t="s">
+        <v>643</v>
+      </c>
+      <c r="R151" t="s">
+        <v>541</v>
+      </c>
+      <c r="U151" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>347</v>
+      </c>
+      <c r="D152" t="s">
+        <v>201</v>
+      </c>
+      <c r="H152" t="s">
+        <v>582</v>
+      </c>
+      <c r="O152" t="s">
+        <v>542</v>
+      </c>
+      <c r="R152" t="s">
+        <v>314</v>
+      </c>
+      <c r="U152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>201</v>
+      </c>
+      <c r="D153" t="s">
+        <v>542</v>
+      </c>
+      <c r="H153" t="s">
+        <v>388</v>
+      </c>
+      <c r="O153" t="s">
+        <v>202</v>
+      </c>
+      <c r="R153" t="s">
+        <v>201</v>
+      </c>
+      <c r="U153" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>556</v>
+      </c>
+      <c r="D154" t="s">
+        <v>543</v>
+      </c>
+      <c r="H154" t="s">
+        <v>609</v>
+      </c>
+      <c r="O154" t="s">
+        <v>644</v>
+      </c>
+      <c r="R154" t="s">
+        <v>543</v>
+      </c>
+      <c r="U154" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>202</v>
+      </c>
+      <c r="D155" t="s">
+        <v>202</v>
+      </c>
+      <c r="H155" t="s">
+        <v>32</v>
+      </c>
+      <c r="O155" t="s">
+        <v>627</v>
+      </c>
+      <c r="R155" t="s">
+        <v>202</v>
+      </c>
+      <c r="U155" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>319</v>
+      </c>
+      <c r="D156" t="s">
+        <v>544</v>
+      </c>
+      <c r="H156" t="s">
+        <v>610</v>
+      </c>
+      <c r="O156" t="s">
+        <v>319</v>
+      </c>
+      <c r="R156" t="s">
+        <v>627</v>
+      </c>
+      <c r="U156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>559</v>
+      </c>
+      <c r="D157" t="s">
+        <v>545</v>
+      </c>
+      <c r="H157" t="s">
+        <v>585</v>
+      </c>
+      <c r="O157" t="s">
+        <v>546</v>
+      </c>
+      <c r="R157" t="s">
+        <v>544</v>
+      </c>
+      <c r="U157" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>561</v>
+      </c>
+      <c r="D158" t="s">
+        <v>546</v>
+      </c>
+      <c r="H158" t="s">
+        <v>611</v>
+      </c>
+      <c r="O158" t="s">
+        <v>548</v>
+      </c>
+      <c r="R158" t="s">
+        <v>628</v>
+      </c>
+      <c r="U158" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>562</v>
+      </c>
+      <c r="D159" t="s">
+        <v>320</v>
+      </c>
+      <c r="H159" t="s">
+        <v>32</v>
+      </c>
+      <c r="O159" t="s">
+        <v>547</v>
+      </c>
+      <c r="R159" t="s">
+        <v>545</v>
+      </c>
+      <c r="U159" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>551</v>
+      </c>
+      <c r="D160" t="s">
+        <v>547</v>
+      </c>
+      <c r="H160" t="s">
+        <v>587</v>
+      </c>
+      <c r="O160" t="s">
+        <v>549</v>
+      </c>
+      <c r="R160" t="s">
+        <v>320</v>
+      </c>
+      <c r="U160" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>548</v>
+      </c>
+      <c r="H161" t="s">
+        <v>588</v>
+      </c>
+      <c r="O161" t="s">
+        <v>577</v>
+      </c>
+      <c r="R161" t="s">
+        <v>117</v>
+      </c>
+      <c r="U161" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>549</v>
+      </c>
+      <c r="H162" t="s">
+        <v>612</v>
+      </c>
+      <c r="O162" t="s">
+        <v>16</v>
+      </c>
+      <c r="R162" t="s">
+        <v>324</v>
+      </c>
+      <c r="U162" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>324</v>
+      </c>
+      <c r="H163" t="s">
+        <v>422</v>
+      </c>
+      <c r="R163" t="s">
+        <v>550</v>
+      </c>
+      <c r="U163" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>550</v>
+      </c>
+      <c r="H164" t="s">
+        <v>613</v>
+      </c>
+      <c r="R164" t="s">
+        <v>629</v>
+      </c>
+      <c r="U164" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>551</v>
+      </c>
+      <c r="H165" t="s">
+        <v>614</v>
+      </c>
+      <c r="R165" t="s">
+        <v>577</v>
+      </c>
+      <c r="U165" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>552</v>
+      </c>
+      <c r="H166" t="s">
+        <v>615</v>
+      </c>
+      <c r="R166" t="s">
+        <v>552</v>
+      </c>
+      <c r="U166" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>553</v>
+      </c>
+      <c r="H167" t="s">
+        <v>393</v>
+      </c>
+      <c r="R167" t="s">
+        <v>630</v>
+      </c>
+      <c r="U167" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s">
+        <v>593</v>
+      </c>
+      <c r="R168" t="s">
+        <v>553</v>
+      </c>
+      <c r="U168" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>594</v>
+      </c>
+      <c r="R169" t="s">
+        <v>16</v>
+      </c>
+      <c r="U169" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>32</v>
+      </c>
+      <c r="U170" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>595</v>
+      </c>
+      <c r="U171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>596</v>
+      </c>
+      <c r="U172" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>597</v>
+      </c>
+      <c r="U173" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>238</v>
+      </c>
+      <c r="U174" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U175" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>554</v>
+      </c>
+      <c r="D183" t="s">
+        <v>9</v>
+      </c>
+      <c r="H183" t="s">
+        <v>33</v>
+      </c>
+      <c r="O183" t="s">
+        <v>9</v>
+      </c>
+      <c r="R183" t="s">
+        <v>554</v>
+      </c>
+      <c r="U183" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" t="s">
+        <v>540</v>
+      </c>
+      <c r="H184" t="s">
+        <v>32</v>
+      </c>
+      <c r="O184" t="s">
+        <v>10</v>
+      </c>
+      <c r="R184" t="s">
+        <v>9</v>
+      </c>
+      <c r="U184" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>319</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="H185" t="s">
+        <v>581</v>
+      </c>
+      <c r="O185" t="s">
+        <v>347</v>
+      </c>
+      <c r="R185" t="s">
+        <v>540</v>
+      </c>
+      <c r="U185" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" t="s">
+        <v>541</v>
+      </c>
+      <c r="H186" t="s">
+        <v>34</v>
+      </c>
+      <c r="O186" t="s">
+        <v>201</v>
+      </c>
+      <c r="R186" t="s">
+        <v>10</v>
+      </c>
+      <c r="U186" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>201</v>
+      </c>
+      <c r="D187" t="s">
+        <v>314</v>
+      </c>
+      <c r="H187" t="s">
+        <v>32</v>
+      </c>
+      <c r="O187" t="s">
+        <v>542</v>
+      </c>
+      <c r="R187" t="s">
+        <v>541</v>
+      </c>
+      <c r="U187" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>347</v>
+      </c>
+      <c r="D188" t="s">
+        <v>201</v>
+      </c>
+      <c r="H188" t="s">
+        <v>582</v>
+      </c>
+      <c r="O188" t="s">
+        <v>202</v>
+      </c>
+      <c r="R188" t="s">
+        <v>314</v>
+      </c>
+      <c r="U188" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>559</v>
+      </c>
+      <c r="D189" t="s">
+        <v>542</v>
+      </c>
+      <c r="H189" t="s">
+        <v>388</v>
+      </c>
+      <c r="O189" t="s">
+        <v>627</v>
+      </c>
+      <c r="R189" t="s">
+        <v>201</v>
+      </c>
+      <c r="U189" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>556</v>
+      </c>
+      <c r="D190" t="s">
+        <v>543</v>
+      </c>
+      <c r="H190" t="s">
+        <v>609</v>
+      </c>
+      <c r="O190" t="s">
+        <v>645</v>
+      </c>
+      <c r="R190" t="s">
+        <v>543</v>
+      </c>
+      <c r="U190" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>576</v>
+      </c>
+      <c r="D191" t="s">
+        <v>202</v>
+      </c>
+      <c r="H191" t="s">
+        <v>32</v>
+      </c>
+      <c r="O191" t="s">
+        <v>319</v>
+      </c>
+      <c r="R191" t="s">
+        <v>202</v>
+      </c>
+      <c r="U191" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>561</v>
+      </c>
+      <c r="D192" t="s">
+        <v>544</v>
+      </c>
+      <c r="H192" t="s">
+        <v>616</v>
+      </c>
+      <c r="O192" t="s">
+        <v>546</v>
+      </c>
+      <c r="R192" t="s">
+        <v>627</v>
+      </c>
+      <c r="U192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>562</v>
+      </c>
+      <c r="D193" t="s">
+        <v>545</v>
+      </c>
+      <c r="H193" t="s">
+        <v>585</v>
+      </c>
+      <c r="O193" t="s">
+        <v>548</v>
+      </c>
+      <c r="R193" t="s">
+        <v>544</v>
+      </c>
+      <c r="U193" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>577</v>
+      </c>
+      <c r="D194" t="s">
+        <v>546</v>
+      </c>
+      <c r="H194" t="s">
+        <v>611</v>
+      </c>
+      <c r="O194" t="s">
+        <v>547</v>
+      </c>
+      <c r="R194" t="s">
+        <v>628</v>
+      </c>
+      <c r="U194" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>578</v>
+      </c>
+      <c r="D195" t="s">
+        <v>320</v>
+      </c>
+      <c r="H195" t="s">
+        <v>32</v>
+      </c>
+      <c r="O195" t="s">
+        <v>549</v>
+      </c>
+      <c r="R195" t="s">
+        <v>545</v>
+      </c>
+      <c r="U195" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>202</v>
+      </c>
+      <c r="D196" t="s">
+        <v>547</v>
+      </c>
+      <c r="H196" t="s">
+        <v>587</v>
+      </c>
+      <c r="O196" t="s">
+        <v>129</v>
+      </c>
+      <c r="R196" t="s">
+        <v>320</v>
+      </c>
+      <c r="U196" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>548</v>
+      </c>
+      <c r="H197" t="s">
+        <v>588</v>
+      </c>
+      <c r="O197" t="s">
+        <v>577</v>
+      </c>
+      <c r="R197" t="s">
+        <v>117</v>
+      </c>
+      <c r="U197" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>549</v>
+      </c>
+      <c r="H198" t="s">
+        <v>617</v>
+      </c>
+      <c r="O198" t="s">
+        <v>16</v>
+      </c>
+      <c r="R198" t="s">
+        <v>324</v>
+      </c>
+      <c r="U198" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>324</v>
+      </c>
+      <c r="H199" t="s">
+        <v>422</v>
+      </c>
+      <c r="R199" t="s">
+        <v>550</v>
+      </c>
+      <c r="U199" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>550</v>
+      </c>
+      <c r="H200" t="s">
+        <v>618</v>
+      </c>
+      <c r="R200" t="s">
+        <v>629</v>
+      </c>
+      <c r="U200" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>551</v>
+      </c>
+      <c r="H201" t="s">
+        <v>619</v>
+      </c>
+      <c r="R201" t="s">
+        <v>577</v>
+      </c>
+      <c r="U201" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>552</v>
+      </c>
+      <c r="H202" t="s">
+        <v>620</v>
+      </c>
+      <c r="R202" t="s">
+        <v>552</v>
+      </c>
+      <c r="U202" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>553</v>
+      </c>
+      <c r="H203" t="s">
+        <v>393</v>
+      </c>
+      <c r="R203" t="s">
+        <v>630</v>
+      </c>
+      <c r="U203" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>16</v>
+      </c>
+      <c r="H204" t="s">
+        <v>593</v>
+      </c>
+      <c r="R204" t="s">
+        <v>553</v>
+      </c>
+      <c r="U204" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>621</v>
+      </c>
+      <c r="R205" t="s">
+        <v>16</v>
+      </c>
+      <c r="U205" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>595</v>
+      </c>
+      <c r="U206" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>596</v>
+      </c>
+      <c r="U207" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>597</v>
+      </c>
+      <c r="U208" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>238</v>
+      </c>
+      <c r="U209" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H210" t="s">
+        <v>238</v>
+      </c>
+      <c r="U210" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H211" t="s">
+        <v>237</v>
+      </c>
+      <c r="U211" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="D219" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H219" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O219" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="R219" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="U219" s="16" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" t="s">
+        <v>540</v>
+      </c>
+      <c r="H220" t="s">
+        <v>32</v>
+      </c>
+      <c r="O220" t="s">
+        <v>9</v>
+      </c>
+      <c r="R220" t="s">
+        <v>9</v>
+      </c>
+      <c r="U220" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="H221" t="s">
+        <v>581</v>
+      </c>
+      <c r="O221" t="s">
+        <v>319</v>
+      </c>
+      <c r="R221" t="s">
+        <v>540</v>
+      </c>
+      <c r="U221" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>347</v>
+      </c>
+      <c r="D222" t="s">
+        <v>541</v>
+      </c>
+      <c r="H222" t="s">
+        <v>34</v>
+      </c>
+      <c r="O222" t="s">
+        <v>10</v>
+      </c>
+      <c r="R222" t="s">
+        <v>10</v>
+      </c>
+      <c r="U222" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>201</v>
+      </c>
+      <c r="D223" t="s">
+        <v>314</v>
+      </c>
+      <c r="H223" t="s">
+        <v>32</v>
+      </c>
+      <c r="O223" t="s">
+        <v>201</v>
+      </c>
+      <c r="R223" t="s">
+        <v>541</v>
+      </c>
+      <c r="U223" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>556</v>
+      </c>
+      <c r="D224" t="s">
+        <v>201</v>
+      </c>
+      <c r="H224" t="s">
+        <v>582</v>
+      </c>
+      <c r="O224" t="s">
+        <v>347</v>
+      </c>
+      <c r="R224" t="s">
+        <v>314</v>
+      </c>
+      <c r="U224" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>579</v>
+      </c>
+      <c r="D225" t="s">
+        <v>542</v>
+      </c>
+      <c r="H225" t="s">
+        <v>388</v>
+      </c>
+      <c r="O225" t="s">
+        <v>546</v>
+      </c>
+      <c r="R225" t="s">
+        <v>201</v>
+      </c>
+      <c r="U225" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>580</v>
+      </c>
+      <c r="D226" t="s">
+        <v>543</v>
+      </c>
+      <c r="H226" t="s">
+        <v>609</v>
+      </c>
+      <c r="O226" t="s">
+        <v>547</v>
+      </c>
+      <c r="R226" t="s">
+        <v>543</v>
+      </c>
+      <c r="U226" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>202</v>
+      </c>
+      <c r="D227" t="s">
+        <v>202</v>
+      </c>
+      <c r="H227" t="s">
+        <v>32</v>
+      </c>
+      <c r="O227" t="s">
+        <v>548</v>
+      </c>
+      <c r="R227" t="s">
+        <v>202</v>
+      </c>
+      <c r="U227" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>319</v>
+      </c>
+      <c r="D228" t="s">
+        <v>544</v>
+      </c>
+      <c r="H228" t="s">
+        <v>622</v>
+      </c>
+      <c r="O228" t="s">
+        <v>542</v>
+      </c>
+      <c r="R228" t="s">
+        <v>627</v>
+      </c>
+      <c r="U228" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>559</v>
+      </c>
+      <c r="D229" t="s">
+        <v>545</v>
+      </c>
+      <c r="H229" t="s">
+        <v>585</v>
+      </c>
+      <c r="O229" t="s">
+        <v>549</v>
+      </c>
+      <c r="R229" t="s">
+        <v>544</v>
+      </c>
+      <c r="U229" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>561</v>
+      </c>
+      <c r="D230" t="s">
+        <v>546</v>
+      </c>
+      <c r="H230" t="s">
+        <v>611</v>
+      </c>
+      <c r="O230" t="s">
+        <v>647</v>
+      </c>
+      <c r="R230" t="s">
+        <v>628</v>
+      </c>
+      <c r="U230" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>562</v>
+      </c>
+      <c r="D231" t="s">
+        <v>320</v>
+      </c>
+      <c r="H231" t="s">
+        <v>32</v>
+      </c>
+      <c r="O231" t="s">
+        <v>551</v>
+      </c>
+      <c r="R231" t="s">
+        <v>545</v>
+      </c>
+      <c r="U231" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>551</v>
+      </c>
+      <c r="D232" t="s">
+        <v>547</v>
+      </c>
+      <c r="H232" t="s">
+        <v>587</v>
+      </c>
+      <c r="O232" t="s">
+        <v>202</v>
+      </c>
+      <c r="R232" t="s">
+        <v>320</v>
+      </c>
+      <c r="U232" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" t="s">
+        <v>548</v>
+      </c>
+      <c r="H233" t="s">
+        <v>588</v>
+      </c>
+      <c r="O233" t="s">
+        <v>16</v>
+      </c>
+      <c r="R233" t="s">
+        <v>117</v>
+      </c>
+      <c r="U233" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>549</v>
+      </c>
+      <c r="H234" t="s">
+        <v>623</v>
+      </c>
+      <c r="R234" t="s">
+        <v>324</v>
+      </c>
+      <c r="U234" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>324</v>
+      </c>
+      <c r="H235" t="s">
+        <v>422</v>
+      </c>
+      <c r="R235" t="s">
+        <v>550</v>
+      </c>
+      <c r="U235" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>550</v>
+      </c>
+      <c r="H236" t="s">
+        <v>624</v>
+      </c>
+      <c r="R236" t="s">
+        <v>629</v>
+      </c>
+      <c r="U236" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>551</v>
+      </c>
+      <c r="H237" t="s">
+        <v>625</v>
+      </c>
+      <c r="R237" t="s">
+        <v>577</v>
+      </c>
+      <c r="U237" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>552</v>
+      </c>
+      <c r="H238" t="s">
+        <v>626</v>
+      </c>
+      <c r="R238" t="s">
+        <v>552</v>
+      </c>
+      <c r="U238" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>553</v>
+      </c>
+      <c r="H239" t="s">
+        <v>393</v>
+      </c>
+      <c r="R239" t="s">
+        <v>630</v>
+      </c>
+      <c r="U239" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" t="s">
+        <v>593</v>
+      </c>
+      <c r="R240" t="s">
+        <v>553</v>
+      </c>
+      <c r="U240" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="241" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H241" t="s">
+        <v>594</v>
+      </c>
+      <c r="R241" t="s">
+        <v>16</v>
+      </c>
+      <c r="U241" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="242" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H242" t="s">
+        <v>32</v>
+      </c>
+      <c r="U242" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="243" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H243" t="s">
+        <v>595</v>
+      </c>
+      <c r="U243" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="244" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H244" t="s">
+        <v>596</v>
+      </c>
+      <c r="U244" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H245" t="s">
+        <v>597</v>
+      </c>
+      <c r="U245" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="246" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H246" t="s">
+        <v>238</v>
+      </c>
+      <c r="U246" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="F4" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="K4" s="17">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="P4" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="S6" s="22"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="S7" s="22"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="22"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24" t="s">
+        <v>698</v>
+      </c>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="K12" s="17">
+        <v>2</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="P12" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="19"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="R13" s="21"/>
+      <c r="S13" s="22"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="S14" s="22"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="S15" s="22"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K16" s="20"/>
+      <c r="L16" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="22"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24" t="s">
+        <v>699</v>
+      </c>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="G20" t="s">
+        <v>700</v>
+      </c>
+      <c r="K20" s="17">
+        <v>3</v>
+      </c>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="P20" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="19"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="R21" s="21"/>
+      <c r="S21" s="22"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="N22" s="22"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="S22" s="22"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="N23" s="22"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="S23" s="22"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="22"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="N25" s="22"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="22"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="N26" s="22"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="N27" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Project2/investigation.xlsx
+++ b/Project2/investigation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="40" windowWidth="27800" windowHeight="13360" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="40" windowWidth="27800" windowHeight="13360" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId12"/>
     <sheet name="Sheet12" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5096" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6347" uniqueCount="702">
   <si>
     <t>The correct answer is: 5</t>
   </si>
@@ -2140,6 +2142,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>BUILD SUCCESSFUL (total time: 4 seconds)</t>
   </si>
 </sst>
 </file>
@@ -2361,8 +2366,118 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2410,7 +2525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2418,6 +2533,61 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2425,6 +2595,61 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6522,7 +6747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="D39" sqref="D39:D59"/>
     </sheetView>
   </sheetViews>
@@ -10482,6 +10707,4799 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V1100"/>
+  <sheetViews>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="L183" sqref="L183:N197"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>515</v>
+      </c>
+      <c r="M4" t="s">
+        <v>515</v>
+      </c>
+      <c r="V4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>516</v>
+      </c>
+      <c r="M5" t="s">
+        <v>531</v>
+      </c>
+      <c r="V5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M7" t="s">
+        <v>347</v>
+      </c>
+      <c r="V7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="V14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="V15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="22:22">
+      <c r="V17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="22:22">
+      <c r="V18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="22:22">
+      <c r="V19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="22:22">
+      <c r="V20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="22:22">
+      <c r="V21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="22:22">
+      <c r="V22" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="22:22">
+      <c r="V23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="22:22">
+      <c r="V24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="22:22">
+      <c r="V25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="22:22">
+      <c r="V26" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
+        <v>515</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s">
+        <v>515</v>
+      </c>
+      <c r="S40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" t="s">
+        <v>517</v>
+      </c>
+      <c r="G41" t="s">
+        <v>523</v>
+      </c>
+      <c r="M41" t="s">
+        <v>532</v>
+      </c>
+      <c r="S41" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>524</v>
+      </c>
+      <c r="M42" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" t="s">
+        <v>347</v>
+      </c>
+      <c r="S43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>525</v>
+      </c>
+      <c r="M45" t="s">
+        <v>18</v>
+      </c>
+      <c r="S45" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" t="s">
+        <v>13</v>
+      </c>
+      <c r="S47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" t="s">
+        <v>15</v>
+      </c>
+      <c r="S48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="M49" t="s">
+        <v>16</v>
+      </c>
+      <c r="S49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="G50" t="s">
+        <v>38</v>
+      </c>
+      <c r="S50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="G52" t="s">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="G53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M75" t="s">
+        <v>9</v>
+      </c>
+      <c r="S75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" t="s">
+        <v>515</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="M76" t="s">
+        <v>515</v>
+      </c>
+      <c r="S76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" t="s">
+        <v>518</v>
+      </c>
+      <c r="G77" t="s">
+        <v>523</v>
+      </c>
+      <c r="M77" t="s">
+        <v>521</v>
+      </c>
+      <c r="S77" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>526</v>
+      </c>
+      <c r="M78" t="s">
+        <v>10</v>
+      </c>
+      <c r="S78" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" t="s">
+        <v>347</v>
+      </c>
+      <c r="G79" t="s">
+        <v>34</v>
+      </c>
+      <c r="M79" t="s">
+        <v>347</v>
+      </c>
+      <c r="S79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="M80" t="s">
+        <v>21</v>
+      </c>
+      <c r="S80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>525</v>
+      </c>
+      <c r="M81" t="s">
+        <v>11</v>
+      </c>
+      <c r="S81" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s">
+        <v>42</v>
+      </c>
+      <c r="M82" t="s">
+        <v>13</v>
+      </c>
+      <c r="S82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+      <c r="M83" t="s">
+        <v>22</v>
+      </c>
+      <c r="S83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="M84" t="s">
+        <v>15</v>
+      </c>
+      <c r="S84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
+      <c r="M85" t="s">
+        <v>16</v>
+      </c>
+      <c r="S85" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="G86" t="s">
+        <v>38</v>
+      </c>
+      <c r="S86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="G87" t="s">
+        <v>43</v>
+      </c>
+      <c r="S87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="G88" t="s">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="G89" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>33</v>
+      </c>
+      <c r="M111" t="s">
+        <v>23</v>
+      </c>
+      <c r="S111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>32</v>
+      </c>
+      <c r="M112" t="s">
+        <v>9</v>
+      </c>
+      <c r="S112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" t="s">
+        <v>515</v>
+      </c>
+      <c r="G113" t="s">
+        <v>523</v>
+      </c>
+      <c r="M113" t="s">
+        <v>515</v>
+      </c>
+      <c r="S113" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" t="s">
+        <v>519</v>
+      </c>
+      <c r="G114" t="s">
+        <v>527</v>
+      </c>
+      <c r="M114" t="s">
+        <v>517</v>
+      </c>
+      <c r="S114" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>34</v>
+      </c>
+      <c r="M115" t="s">
+        <v>10</v>
+      </c>
+      <c r="S115" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" t="s">
+        <v>347</v>
+      </c>
+      <c r="G116" t="s">
+        <v>32</v>
+      </c>
+      <c r="M116" t="s">
+        <v>347</v>
+      </c>
+      <c r="S116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>525</v>
+      </c>
+      <c r="M117" t="s">
+        <v>11</v>
+      </c>
+      <c r="S117" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" t="s">
+        <v>44</v>
+      </c>
+      <c r="M118" t="s">
+        <v>24</v>
+      </c>
+      <c r="S118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>36</v>
+      </c>
+      <c r="M119" t="s">
+        <v>13</v>
+      </c>
+      <c r="S119" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>37</v>
+      </c>
+      <c r="M120" t="s">
+        <v>15</v>
+      </c>
+      <c r="S120" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>32</v>
+      </c>
+      <c r="M121" t="s">
+        <v>16</v>
+      </c>
+      <c r="S121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="G122" t="s">
+        <v>38</v>
+      </c>
+      <c r="S122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="G123" t="s">
+        <v>45</v>
+      </c>
+      <c r="S123" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="G124" t="s">
+        <v>40</v>
+      </c>
+      <c r="S124" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="G125" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" t="s">
+        <v>25</v>
+      </c>
+      <c r="G147" t="s">
+        <v>33</v>
+      </c>
+      <c r="M147" t="s">
+        <v>25</v>
+      </c>
+      <c r="S147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" t="s">
+        <v>32</v>
+      </c>
+      <c r="M148" t="s">
+        <v>9</v>
+      </c>
+      <c r="S148" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" t="s">
+        <v>515</v>
+      </c>
+      <c r="G149" t="s">
+        <v>523</v>
+      </c>
+      <c r="M149" t="s">
+        <v>515</v>
+      </c>
+      <c r="S149" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="A150" t="s">
+        <v>520</v>
+      </c>
+      <c r="G150" t="s">
+        <v>528</v>
+      </c>
+      <c r="M150" t="s">
+        <v>522</v>
+      </c>
+      <c r="S150" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
+        <v>34</v>
+      </c>
+      <c r="M151" t="s">
+        <v>10</v>
+      </c>
+      <c r="S151" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" t="s">
+        <v>347</v>
+      </c>
+      <c r="G152" t="s">
+        <v>32</v>
+      </c>
+      <c r="M152" t="s">
+        <v>347</v>
+      </c>
+      <c r="S152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
+      <c r="A153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>525</v>
+      </c>
+      <c r="M153" t="s">
+        <v>11</v>
+      </c>
+      <c r="S153" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154" t="s">
+        <v>46</v>
+      </c>
+      <c r="M154" t="s">
+        <v>13</v>
+      </c>
+      <c r="S154" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>36</v>
+      </c>
+      <c r="M155" t="s">
+        <v>26</v>
+      </c>
+      <c r="S155" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
+      <c r="A156" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>37</v>
+      </c>
+      <c r="M156" t="s">
+        <v>15</v>
+      </c>
+      <c r="S156" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>32</v>
+      </c>
+      <c r="M157" t="s">
+        <v>16</v>
+      </c>
+      <c r="S157" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
+      <c r="G158" t="s">
+        <v>38</v>
+      </c>
+      <c r="S158" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
+      <c r="G159" t="s">
+        <v>47</v>
+      </c>
+      <c r="S159" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
+      <c r="G160" t="s">
+        <v>40</v>
+      </c>
+      <c r="S160" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="7:7">
+      <c r="G161" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" t="s">
+        <v>33</v>
+      </c>
+      <c r="G183" t="s">
+        <v>33</v>
+      </c>
+      <c r="L183" t="s">
+        <v>9</v>
+      </c>
+      <c r="M183" t="s">
+        <v>9</v>
+      </c>
+      <c r="N183" t="s">
+        <v>33</v>
+      </c>
+      <c r="S183" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
+      <c r="A184" t="s">
+        <v>515</v>
+      </c>
+      <c r="B184" t="s">
+        <v>515</v>
+      </c>
+      <c r="C184" t="s">
+        <v>32</v>
+      </c>
+      <c r="G184" t="s">
+        <v>32</v>
+      </c>
+      <c r="L184" t="s">
+        <v>515</v>
+      </c>
+      <c r="M184" t="s">
+        <v>515</v>
+      </c>
+      <c r="N184" t="s">
+        <v>32</v>
+      </c>
+      <c r="S184" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
+      <c r="A185" t="s">
+        <v>516</v>
+      </c>
+      <c r="B185" t="s">
+        <v>521</v>
+      </c>
+      <c r="C185" t="s">
+        <v>523</v>
+      </c>
+      <c r="G185" t="s">
+        <v>523</v>
+      </c>
+      <c r="L185" t="s">
+        <v>531</v>
+      </c>
+      <c r="M185" t="s">
+        <v>516</v>
+      </c>
+      <c r="N185" t="s">
+        <v>523</v>
+      </c>
+      <c r="S185" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>529</v>
+      </c>
+      <c r="G186" t="s">
+        <v>529</v>
+      </c>
+      <c r="L186" t="s">
+        <v>10</v>
+      </c>
+      <c r="M186" t="s">
+        <v>10</v>
+      </c>
+      <c r="N186" t="s">
+        <v>538</v>
+      </c>
+      <c r="S186" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
+      <c r="A187" t="s">
+        <v>347</v>
+      </c>
+      <c r="B187" t="s">
+        <v>347</v>
+      </c>
+      <c r="C187" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" t="s">
+        <v>34</v>
+      </c>
+      <c r="L187" t="s">
+        <v>347</v>
+      </c>
+      <c r="M187" t="s">
+        <v>347</v>
+      </c>
+      <c r="N187" t="s">
+        <v>34</v>
+      </c>
+      <c r="S187" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19">
+      <c r="A188" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" t="s">
+        <v>32</v>
+      </c>
+      <c r="G188" t="s">
+        <v>32</v>
+      </c>
+      <c r="L188" t="s">
+        <v>17</v>
+      </c>
+      <c r="M188" t="s">
+        <v>11</v>
+      </c>
+      <c r="N188" t="s">
+        <v>32</v>
+      </c>
+      <c r="S188" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189" t="s">
+        <v>525</v>
+      </c>
+      <c r="G189" t="s">
+        <v>525</v>
+      </c>
+      <c r="L189" t="s">
+        <v>19</v>
+      </c>
+      <c r="M189" t="s">
+        <v>27</v>
+      </c>
+      <c r="N189" t="s">
+        <v>525</v>
+      </c>
+      <c r="S189" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" t="s">
+        <v>48</v>
+      </c>
+      <c r="G190" t="s">
+        <v>48</v>
+      </c>
+      <c r="L190" t="s">
+        <v>12</v>
+      </c>
+      <c r="M190" t="s">
+        <v>28</v>
+      </c>
+      <c r="N190" t="s">
+        <v>62</v>
+      </c>
+      <c r="S190" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" t="s">
+        <v>36</v>
+      </c>
+      <c r="G191" t="s">
+        <v>36</v>
+      </c>
+      <c r="L191" t="s">
+        <v>13</v>
+      </c>
+      <c r="M191" t="s">
+        <v>13</v>
+      </c>
+      <c r="N191" t="s">
+        <v>63</v>
+      </c>
+      <c r="S191" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19">
+      <c r="A192" t="s">
+        <v>15</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>37</v>
+      </c>
+      <c r="G192" t="s">
+        <v>37</v>
+      </c>
+      <c r="L192" t="s">
+        <v>14</v>
+      </c>
+      <c r="M192" t="s">
+        <v>15</v>
+      </c>
+      <c r="N192" t="s">
+        <v>54</v>
+      </c>
+      <c r="S192" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19">
+      <c r="A193" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" t="s">
+        <v>32</v>
+      </c>
+      <c r="G193" t="s">
+        <v>32</v>
+      </c>
+      <c r="L193" t="s">
+        <v>16</v>
+      </c>
+      <c r="M193" t="s">
+        <v>16</v>
+      </c>
+      <c r="N193" t="s">
+        <v>37</v>
+      </c>
+      <c r="S193" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19">
+      <c r="C194" t="s">
+        <v>38</v>
+      </c>
+      <c r="G194" t="s">
+        <v>38</v>
+      </c>
+      <c r="N194" t="s">
+        <v>32</v>
+      </c>
+      <c r="S194" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
+      <c r="C195" t="s">
+        <v>49</v>
+      </c>
+      <c r="G195" t="s">
+        <v>49</v>
+      </c>
+      <c r="N195" t="s">
+        <v>55</v>
+      </c>
+      <c r="S195" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19">
+      <c r="C196" t="s">
+        <v>40</v>
+      </c>
+      <c r="G196" t="s">
+        <v>40</v>
+      </c>
+      <c r="N196" t="s">
+        <v>40</v>
+      </c>
+      <c r="S196" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19">
+      <c r="C197" t="s">
+        <v>238</v>
+      </c>
+      <c r="G197" t="s">
+        <v>238</v>
+      </c>
+      <c r="N197" t="s">
+        <v>294</v>
+      </c>
+      <c r="S197" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
+      <c r="C198" t="s">
+        <v>294</v>
+      </c>
+      <c r="G198" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19">
+      <c r="A219" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" t="s">
+        <v>33</v>
+      </c>
+      <c r="M219" t="s">
+        <v>9</v>
+      </c>
+      <c r="S219" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19">
+      <c r="A220" t="s">
+        <v>515</v>
+      </c>
+      <c r="G220" t="s">
+        <v>32</v>
+      </c>
+      <c r="M220" t="s">
+        <v>515</v>
+      </c>
+      <c r="S220" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19">
+      <c r="A221" t="s">
+        <v>522</v>
+      </c>
+      <c r="G221" t="s">
+        <v>523</v>
+      </c>
+      <c r="M221" t="s">
+        <v>533</v>
+      </c>
+      <c r="S221" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" t="s">
+        <v>530</v>
+      </c>
+      <c r="M222" t="s">
+        <v>10</v>
+      </c>
+      <c r="S222" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19">
+      <c r="A223" t="s">
+        <v>347</v>
+      </c>
+      <c r="G223" t="s">
+        <v>34</v>
+      </c>
+      <c r="M223" t="s">
+        <v>347</v>
+      </c>
+      <c r="S223" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19">
+      <c r="A224" t="s">
+        <v>29</v>
+      </c>
+      <c r="G224" t="s">
+        <v>32</v>
+      </c>
+      <c r="M224" t="s">
+        <v>29</v>
+      </c>
+      <c r="S224" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19">
+      <c r="A225" t="s">
+        <v>17</v>
+      </c>
+      <c r="G225" t="s">
+        <v>525</v>
+      </c>
+      <c r="M225" t="s">
+        <v>11</v>
+      </c>
+      <c r="S225" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19">
+      <c r="A226" t="s">
+        <v>30</v>
+      </c>
+      <c r="G226" t="s">
+        <v>50</v>
+      </c>
+      <c r="M226" t="s">
+        <v>30</v>
+      </c>
+      <c r="S226" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19">
+      <c r="A227" t="s">
+        <v>19</v>
+      </c>
+      <c r="G227" t="s">
+        <v>36</v>
+      </c>
+      <c r="M227" t="s">
+        <v>13</v>
+      </c>
+      <c r="S227" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19">
+      <c r="A228" t="s">
+        <v>13</v>
+      </c>
+      <c r="G228" t="s">
+        <v>37</v>
+      </c>
+      <c r="M228" t="s">
+        <v>15</v>
+      </c>
+      <c r="S228" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19">
+      <c r="A229" t="s">
+        <v>16</v>
+      </c>
+      <c r="G229" t="s">
+        <v>32</v>
+      </c>
+      <c r="M229" t="s">
+        <v>16</v>
+      </c>
+      <c r="S229" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19">
+      <c r="G230" t="s">
+        <v>38</v>
+      </c>
+      <c r="S230" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19">
+      <c r="G231" t="s">
+        <v>51</v>
+      </c>
+      <c r="S231" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19">
+      <c r="G232" t="s">
+        <v>40</v>
+      </c>
+      <c r="S232" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19">
+      <c r="G233" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1">
+      <c r="A1003" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1">
+      <c r="A1006" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1">
+      <c r="A1011" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1">
+      <c r="A1013" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1">
+      <c r="A1014" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1">
+      <c r="A1016" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1">
+      <c r="A1018" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1">
+      <c r="A1023" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1">
+      <c r="A1028" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1">
+      <c r="A1029" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1">
+      <c r="A1031" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1">
+      <c r="A1033" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1">
+      <c r="A1034" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1">
+      <c r="A1036" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1">
+      <c r="A1038" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1">
+      <c r="A1039" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1">
+      <c r="A1041" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1">
+      <c r="A1043" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1">
+      <c r="A1044" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1">
+      <c r="A1046" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1">
+      <c r="A1048" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1">
+      <c r="A1049" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1">
+      <c r="A1051" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1">
+      <c r="A1053" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1">
+      <c r="A1054" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1">
+      <c r="A1056" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1">
+      <c r="A1058" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1">
+      <c r="A1059" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1">
+      <c r="A1061" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1">
+      <c r="A1063" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1">
+      <c r="A1064" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1">
+      <c r="A1066" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1">
+      <c r="A1068" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1">
+      <c r="A1069" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1">
+      <c r="A1071" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1">
+      <c r="A1073" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1">
+      <c r="A1074" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1">
+      <c r="A1076" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1">
+      <c r="A1078" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1">
+      <c r="A1079" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1">
+      <c r="A1081" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1">
+      <c r="A1083" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1">
+      <c r="A1084" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1">
+      <c r="A1086" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1">
+      <c r="A1088" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1">
+      <c r="A1089" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1">
+      <c r="A1091" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1">
+      <c r="A1093" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1">
+      <c r="A1094" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1">
+      <c r="A1096" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1">
+      <c r="A1098" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1">
+      <c r="A1099" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1">
+      <c r="A1100" t="s">
+        <v>701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T1060"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39:K67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="P2" t="str">
+        <f>"Guess "&amp;T2&amp; " Points"</f>
+        <v>Guess 1=&gt;7 Points</v>
+      </c>
+      <c r="T2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>554</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P23" si="0">"Guess "&amp;T3&amp; " Points"</f>
+        <v>Guess 2=&gt;6 Points</v>
+      </c>
+      <c r="T3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>540</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 3=&gt;6 Points</v>
+      </c>
+      <c r="T4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>540</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 4=&gt;6 Points</v>
+      </c>
+      <c r="T5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>541</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 5=&gt;7 Points</v>
+      </c>
+      <c r="T6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>314</v>
+      </c>
+      <c r="J7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 6=&gt;6 Points</v>
+      </c>
+      <c r="T7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" t="s">
+        <v>314</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess  Points</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>542</v>
+      </c>
+      <c r="J9" t="s">
+        <v>201</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 0=&gt;0 Points</v>
+      </c>
+      <c r="T9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>543</v>
+      </c>
+      <c r="J10" t="s">
+        <v>543</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 1=&gt;6 Points</v>
+      </c>
+      <c r="T10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" t="s">
+        <v>202</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 2=&gt;7 Points</v>
+      </c>
+      <c r="T11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>544</v>
+      </c>
+      <c r="J12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 3=&gt;5 Points</v>
+      </c>
+      <c r="T12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>545</v>
+      </c>
+      <c r="J13" t="s">
+        <v>544</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 4=&gt;6 Points</v>
+      </c>
+      <c r="T13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>546</v>
+      </c>
+      <c r="J14" t="s">
+        <v>628</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 5=&gt;6 Points</v>
+      </c>
+      <c r="T14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="J15" t="s">
+        <v>545</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 6=&gt;5 Points</v>
+      </c>
+      <c r="T15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>547</v>
+      </c>
+      <c r="J16" t="s">
+        <v>320</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess  Points</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>548</v>
+      </c>
+      <c r="J17" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 0=&gt;0 Points</v>
+      </c>
+      <c r="T17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>549</v>
+      </c>
+      <c r="J18" t="s">
+        <v>324</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 1=&gt;13 Points</v>
+      </c>
+      <c r="T18" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J19" t="s">
+        <v>550</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 2=&gt;13 Points</v>
+      </c>
+      <c r="T19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>550</v>
+      </c>
+      <c r="J20" t="s">
+        <v>629</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 3=&gt;11 Points</v>
+      </c>
+      <c r="T20" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>551</v>
+      </c>
+      <c r="J21" t="s">
+        <v>577</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 4=&gt;12 Points</v>
+      </c>
+      <c r="T21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>552</v>
+      </c>
+      <c r="J22" t="s">
+        <v>552</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 5=&gt;13 Points</v>
+      </c>
+      <c r="T22" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>553</v>
+      </c>
+      <c r="J23" t="s">
+        <v>630</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="0"/>
+        <v>Guess 6=&gt;11 Points</v>
+      </c>
+      <c r="T23" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>553</v>
+      </c>
+      <c r="T24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="T25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="T26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>554</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>554</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>648</v>
+      </c>
+      <c r="O39" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>540</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s">
+        <v>540</v>
+      </c>
+      <c r="J40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>581</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>555</v>
+      </c>
+      <c r="D42" t="s">
+        <v>541</v>
+      </c>
+      <c r="E42" t="s">
+        <v>555</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s">
+        <v>541</v>
+      </c>
+      <c r="J42" t="s">
+        <v>542</v>
+      </c>
+      <c r="K42" t="s">
+        <v>581</v>
+      </c>
+      <c r="O42" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43" t="s">
+        <v>314</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" t="s">
+        <v>314</v>
+      </c>
+      <c r="J43" t="s">
+        <v>631</v>
+      </c>
+      <c r="K43" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>556</v>
+      </c>
+      <c r="D44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" t="s">
+        <v>556</v>
+      </c>
+      <c r="F44" t="s">
+        <v>582</v>
+      </c>
+      <c r="I44" t="s">
+        <v>201</v>
+      </c>
+      <c r="J44" t="s">
+        <v>632</v>
+      </c>
+      <c r="K44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>542</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>365</v>
+      </c>
+      <c r="I45" t="s">
+        <v>542</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>649</v>
+      </c>
+      <c r="O45" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
+        <v>557</v>
+      </c>
+      <c r="D46" t="s">
+        <v>543</v>
+      </c>
+      <c r="E46" t="s">
+        <v>557</v>
+      </c>
+      <c r="F46" t="s">
+        <v>583</v>
+      </c>
+      <c r="I46" t="s">
+        <v>543</v>
+      </c>
+      <c r="J46" t="s">
+        <v>627</v>
+      </c>
+      <c r="K46" t="s">
+        <v>365</v>
+      </c>
+      <c r="O46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" t="s">
+        <v>584</v>
+      </c>
+      <c r="I47" t="s">
+        <v>202</v>
+      </c>
+      <c r="J47" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s">
+        <v>583</v>
+      </c>
+      <c r="O47" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" t="s">
+        <v>558</v>
+      </c>
+      <c r="D48" t="s">
+        <v>544</v>
+      </c>
+      <c r="E48" t="s">
+        <v>558</v>
+      </c>
+      <c r="F48" t="s">
+        <v>585</v>
+      </c>
+      <c r="I48" t="s">
+        <v>544</v>
+      </c>
+      <c r="J48" t="s">
+        <v>633</v>
+      </c>
+      <c r="K48" t="s">
+        <v>585</v>
+      </c>
+      <c r="O48" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>559</v>
+      </c>
+      <c r="D49" t="s">
+        <v>545</v>
+      </c>
+      <c r="E49" t="s">
+        <v>559</v>
+      </c>
+      <c r="F49" t="s">
+        <v>586</v>
+      </c>
+      <c r="I49" t="s">
+        <v>545</v>
+      </c>
+      <c r="J49" t="s">
+        <v>634</v>
+      </c>
+      <c r="K49" t="s">
+        <v>586</v>
+      </c>
+      <c r="O49" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
+        <v>560</v>
+      </c>
+      <c r="D50" t="s">
+        <v>546</v>
+      </c>
+      <c r="E50" t="s">
+        <v>560</v>
+      </c>
+      <c r="F50" t="s">
+        <v>587</v>
+      </c>
+      <c r="I50" t="s">
+        <v>546</v>
+      </c>
+      <c r="J50" t="s">
+        <v>546</v>
+      </c>
+      <c r="K50" t="s">
+        <v>650</v>
+      </c>
+      <c r="O50" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" t="s">
+        <v>320</v>
+      </c>
+      <c r="E51" t="s">
+        <v>324</v>
+      </c>
+      <c r="F51" t="s">
+        <v>588</v>
+      </c>
+      <c r="I51" t="s">
+        <v>320</v>
+      </c>
+      <c r="J51" t="s">
+        <v>548</v>
+      </c>
+      <c r="K51" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
+        <v>561</v>
+      </c>
+      <c r="D52" t="s">
+        <v>547</v>
+      </c>
+      <c r="E52" t="s">
+        <v>561</v>
+      </c>
+      <c r="F52" t="s">
+        <v>589</v>
+      </c>
+      <c r="I52" t="s">
+        <v>547</v>
+      </c>
+      <c r="J52" t="s">
+        <v>547</v>
+      </c>
+      <c r="K52" t="s">
+        <v>587</v>
+      </c>
+      <c r="O52" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>562</v>
+      </c>
+      <c r="D53" t="s">
+        <v>548</v>
+      </c>
+      <c r="E53" t="s">
+        <v>562</v>
+      </c>
+      <c r="F53" t="s">
+        <v>422</v>
+      </c>
+      <c r="I53" t="s">
+        <v>548</v>
+      </c>
+      <c r="J53" t="s">
+        <v>549</v>
+      </c>
+      <c r="K53" t="s">
+        <v>651</v>
+      </c>
+      <c r="O53" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>551</v>
+      </c>
+      <c r="D54" t="s">
+        <v>549</v>
+      </c>
+      <c r="E54" t="s">
+        <v>551</v>
+      </c>
+      <c r="F54" t="s">
+        <v>590</v>
+      </c>
+      <c r="I54" t="s">
+        <v>549</v>
+      </c>
+      <c r="J54" t="s">
+        <v>324</v>
+      </c>
+      <c r="K54" t="s">
+        <v>588</v>
+      </c>
+      <c r="O54" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>563</v>
+      </c>
+      <c r="D55" t="s">
+        <v>324</v>
+      </c>
+      <c r="E55" t="s">
+        <v>563</v>
+      </c>
+      <c r="F55" t="s">
+        <v>591</v>
+      </c>
+      <c r="I55" t="s">
+        <v>324</v>
+      </c>
+      <c r="J55" t="s">
+        <v>577</v>
+      </c>
+      <c r="K55" t="s">
+        <v>422</v>
+      </c>
+      <c r="O55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>550</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>592</v>
+      </c>
+      <c r="I56" t="s">
+        <v>550</v>
+      </c>
+      <c r="J56" t="s">
+        <v>635</v>
+      </c>
+      <c r="K56" t="s">
+        <v>652</v>
+      </c>
+      <c r="O56" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="D57" t="s">
+        <v>551</v>
+      </c>
+      <c r="F57" t="s">
+        <v>375</v>
+      </c>
+      <c r="I57" t="s">
+        <v>551</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" t="s">
+        <v>375</v>
+      </c>
+      <c r="O57" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="D58" t="s">
+        <v>552</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s">
+        <v>552</v>
+      </c>
+      <c r="K58" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="D59" t="s">
+        <v>553</v>
+      </c>
+      <c r="F59" t="s">
+        <v>593</v>
+      </c>
+      <c r="I59" t="s">
+        <v>553</v>
+      </c>
+      <c r="K59" t="s">
+        <v>653</v>
+      </c>
+      <c r="O59" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>594</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" t="s">
+        <v>654</v>
+      </c>
+      <c r="O60" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="F62" t="s">
+        <v>595</v>
+      </c>
+      <c r="K62" t="s">
+        <v>655</v>
+      </c>
+      <c r="O62" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="F63" t="s">
+        <v>596</v>
+      </c>
+      <c r="K63" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="F64" t="s">
+        <v>597</v>
+      </c>
+      <c r="K64" t="s">
+        <v>595</v>
+      </c>
+      <c r="O64" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="F65" t="s">
+        <v>238</v>
+      </c>
+      <c r="K65" t="s">
+        <v>656</v>
+      </c>
+      <c r="O65" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="F66" t="s">
+        <v>238</v>
+      </c>
+      <c r="K66" t="s">
+        <v>596</v>
+      </c>
+      <c r="O66" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="F67" t="s">
+        <v>238</v>
+      </c>
+      <c r="K67" t="s">
+        <v>597</v>
+      </c>
+      <c r="O67" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" t="s">
+        <v>554</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" t="s">
+        <v>9</v>
+      </c>
+      <c r="O75" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>581</v>
+      </c>
+      <c r="J77" t="s">
+        <v>314</v>
+      </c>
+      <c r="O77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
+        <v>314</v>
+      </c>
+      <c r="F78" t="s">
+        <v>34</v>
+      </c>
+      <c r="J78" t="s">
+        <v>542</v>
+      </c>
+      <c r="O78" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>556</v>
+      </c>
+      <c r="F79" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s">
+        <v>565</v>
+      </c>
+      <c r="O79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>564</v>
+      </c>
+      <c r="F80" t="s">
+        <v>582</v>
+      </c>
+      <c r="J80" t="s">
+        <v>13</v>
+      </c>
+      <c r="O80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
+        <v>565</v>
+      </c>
+      <c r="F81" t="s">
+        <v>365</v>
+      </c>
+      <c r="J81" t="s">
+        <v>636</v>
+      </c>
+      <c r="O81" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>583</v>
+      </c>
+      <c r="J82" t="s">
+        <v>627</v>
+      </c>
+      <c r="O82" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>566</v>
+      </c>
+      <c r="F83" t="s">
+        <v>598</v>
+      </c>
+      <c r="J83" t="s">
+        <v>319</v>
+      </c>
+      <c r="O83" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84" t="s">
+        <v>585</v>
+      </c>
+      <c r="J84" t="s">
+        <v>637</v>
+      </c>
+      <c r="O84" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
+        <v>567</v>
+      </c>
+      <c r="F85" t="s">
+        <v>586</v>
+      </c>
+      <c r="J85" t="s">
+        <v>546</v>
+      </c>
+      <c r="O85" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
+        <v>559</v>
+      </c>
+      <c r="F86" t="s">
+        <v>587</v>
+      </c>
+      <c r="J86" t="s">
+        <v>548</v>
+      </c>
+      <c r="O86" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" t="s">
+        <v>568</v>
+      </c>
+      <c r="F87" t="s">
+        <v>588</v>
+      </c>
+      <c r="J87" t="s">
+        <v>547</v>
+      </c>
+      <c r="O87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" t="s">
+        <v>324</v>
+      </c>
+      <c r="F88" t="s">
+        <v>599</v>
+      </c>
+      <c r="J88" t="s">
+        <v>549</v>
+      </c>
+      <c r="O88" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" t="s">
+        <v>561</v>
+      </c>
+      <c r="F89" t="s">
+        <v>422</v>
+      </c>
+      <c r="J89" t="s">
+        <v>324</v>
+      </c>
+      <c r="O89" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" t="s">
+        <v>562</v>
+      </c>
+      <c r="F90" t="s">
+        <v>600</v>
+      </c>
+      <c r="J90" t="s">
+        <v>551</v>
+      </c>
+      <c r="O90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>601</v>
+      </c>
+      <c r="J91" t="s">
+        <v>638</v>
+      </c>
+      <c r="O91" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="F92" t="s">
+        <v>602</v>
+      </c>
+      <c r="J92" t="s">
+        <v>639</v>
+      </c>
+      <c r="O92" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="F93" t="s">
+        <v>375</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+      <c r="O93" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="F94" t="s">
+        <v>32</v>
+      </c>
+      <c r="O94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="F95" t="s">
+        <v>593</v>
+      </c>
+      <c r="O95" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="F96" t="s">
+        <v>603</v>
+      </c>
+      <c r="O96" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="F97" t="s">
+        <v>595</v>
+      </c>
+      <c r="O97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="F98" t="s">
+        <v>596</v>
+      </c>
+      <c r="O98" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="F99" t="s">
+        <v>597</v>
+      </c>
+      <c r="O99" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="F100" t="s">
+        <v>238</v>
+      </c>
+      <c r="O100" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="F101" t="s">
+        <v>238</v>
+      </c>
+      <c r="O101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="F102" t="s">
+        <v>237</v>
+      </c>
+      <c r="O102" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="O103" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="O104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" t="s">
+        <v>554</v>
+      </c>
+      <c r="F111" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" t="s">
+        <v>9</v>
+      </c>
+      <c r="O111" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="J112" t="s">
+        <v>10</v>
+      </c>
+      <c r="O112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>581</v>
+      </c>
+      <c r="J113" t="s">
+        <v>314</v>
+      </c>
+      <c r="O113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" t="s">
+        <v>314</v>
+      </c>
+      <c r="F114" t="s">
+        <v>34</v>
+      </c>
+      <c r="J114" t="s">
+        <v>542</v>
+      </c>
+      <c r="O114" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
+        <v>556</v>
+      </c>
+      <c r="F115" t="s">
+        <v>32</v>
+      </c>
+      <c r="J115" t="s">
+        <v>13</v>
+      </c>
+      <c r="O115" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" t="s">
+        <v>569</v>
+      </c>
+      <c r="F116" t="s">
+        <v>582</v>
+      </c>
+      <c r="J116" t="s">
+        <v>640</v>
+      </c>
+      <c r="O116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" t="s">
+        <v>570</v>
+      </c>
+      <c r="F117" t="s">
+        <v>365</v>
+      </c>
+      <c r="J117" t="s">
+        <v>123</v>
+      </c>
+      <c r="O117" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>583</v>
+      </c>
+      <c r="J118" t="s">
+        <v>641</v>
+      </c>
+      <c r="O118" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" t="s">
+        <v>571</v>
+      </c>
+      <c r="F119" t="s">
+        <v>604</v>
+      </c>
+      <c r="J119" t="s">
+        <v>319</v>
+      </c>
+      <c r="O119" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" t="s">
+        <v>319</v>
+      </c>
+      <c r="F120" t="s">
+        <v>585</v>
+      </c>
+      <c r="J120" t="s">
+        <v>546</v>
+      </c>
+      <c r="O120" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
+        <v>559</v>
+      </c>
+      <c r="F121" t="s">
+        <v>586</v>
+      </c>
+      <c r="J121" t="s">
+        <v>548</v>
+      </c>
+      <c r="O121" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" t="s">
+        <v>561</v>
+      </c>
+      <c r="F122" t="s">
+        <v>587</v>
+      </c>
+      <c r="J122" t="s">
+        <v>547</v>
+      </c>
+      <c r="O122" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" t="s">
+        <v>572</v>
+      </c>
+      <c r="F123" t="s">
+        <v>588</v>
+      </c>
+      <c r="J123" t="s">
+        <v>549</v>
+      </c>
+      <c r="O123" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" t="s">
+        <v>562</v>
+      </c>
+      <c r="F124" t="s">
+        <v>605</v>
+      </c>
+      <c r="J124" t="s">
+        <v>324</v>
+      </c>
+      <c r="O124" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" t="s">
+        <v>573</v>
+      </c>
+      <c r="F125" t="s">
+        <v>422</v>
+      </c>
+      <c r="J125" t="s">
+        <v>573</v>
+      </c>
+      <c r="O125" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" t="s">
+        <v>551</v>
+      </c>
+      <c r="F126" t="s">
+        <v>606</v>
+      </c>
+      <c r="J126" t="s">
+        <v>642</v>
+      </c>
+      <c r="O126" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" t="s">
+        <v>607</v>
+      </c>
+      <c r="J127" t="s">
+        <v>16</v>
+      </c>
+      <c r="O127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="F128" t="s">
+        <v>608</v>
+      </c>
+      <c r="O128" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="129" spans="6:15">
+      <c r="F129" t="s">
+        <v>393</v>
+      </c>
+      <c r="O129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="6:15">
+      <c r="F130" t="s">
+        <v>593</v>
+      </c>
+      <c r="O130" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="131" spans="6:15">
+      <c r="F131" t="s">
+        <v>594</v>
+      </c>
+      <c r="O131" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="132" spans="6:15">
+      <c r="F132" t="s">
+        <v>32</v>
+      </c>
+      <c r="O132" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="133" spans="6:15">
+      <c r="F133" t="s">
+        <v>595</v>
+      </c>
+      <c r="O133" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="134" spans="6:15">
+      <c r="F134" t="s">
+        <v>596</v>
+      </c>
+      <c r="O134" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="135" spans="6:15">
+      <c r="F135" t="s">
+        <v>597</v>
+      </c>
+      <c r="O135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="6:15">
+      <c r="F136" t="s">
+        <v>238</v>
+      </c>
+      <c r="O136" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="137" spans="6:15">
+      <c r="F137" t="s">
+        <v>238</v>
+      </c>
+      <c r="O137" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="6:15">
+      <c r="F138" t="s">
+        <v>237</v>
+      </c>
+      <c r="O138" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" t="s">
+        <v>554</v>
+      </c>
+      <c r="F147" t="s">
+        <v>33</v>
+      </c>
+      <c r="J147" t="s">
+        <v>9</v>
+      </c>
+      <c r="O147" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" t="s">
+        <v>574</v>
+      </c>
+      <c r="F148" t="s">
+        <v>32</v>
+      </c>
+      <c r="J148" t="s">
+        <v>10</v>
+      </c>
+      <c r="O148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
+        <v>581</v>
+      </c>
+      <c r="J149" t="s">
+        <v>347</v>
+      </c>
+      <c r="O149" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" t="s">
+        <v>34</v>
+      </c>
+      <c r="J150" t="s">
+        <v>201</v>
+      </c>
+      <c r="O150" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" t="s">
+        <v>575</v>
+      </c>
+      <c r="F151" t="s">
+        <v>32</v>
+      </c>
+      <c r="J151" t="s">
+        <v>643</v>
+      </c>
+      <c r="O151" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" t="s">
+        <v>347</v>
+      </c>
+      <c r="F152" t="s">
+        <v>582</v>
+      </c>
+      <c r="J152" t="s">
+        <v>542</v>
+      </c>
+      <c r="O152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" t="s">
+        <v>201</v>
+      </c>
+      <c r="F153" t="s">
+        <v>388</v>
+      </c>
+      <c r="J153" t="s">
+        <v>202</v>
+      </c>
+      <c r="O153" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" t="s">
+        <v>556</v>
+      </c>
+      <c r="F154" t="s">
+        <v>609</v>
+      </c>
+      <c r="J154" t="s">
+        <v>644</v>
+      </c>
+      <c r="O154" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" t="s">
+        <v>202</v>
+      </c>
+      <c r="F155" t="s">
+        <v>32</v>
+      </c>
+      <c r="J155" t="s">
+        <v>627</v>
+      </c>
+      <c r="O155" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" t="s">
+        <v>319</v>
+      </c>
+      <c r="F156" t="s">
+        <v>610</v>
+      </c>
+      <c r="J156" t="s">
+        <v>319</v>
+      </c>
+      <c r="O156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" t="s">
+        <v>559</v>
+      </c>
+      <c r="F157" t="s">
+        <v>585</v>
+      </c>
+      <c r="J157" t="s">
+        <v>546</v>
+      </c>
+      <c r="O157" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" t="s">
+        <v>561</v>
+      </c>
+      <c r="F158" t="s">
+        <v>611</v>
+      </c>
+      <c r="J158" t="s">
+        <v>548</v>
+      </c>
+      <c r="O158" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" t="s">
+        <v>562</v>
+      </c>
+      <c r="F159" t="s">
+        <v>32</v>
+      </c>
+      <c r="J159" t="s">
+        <v>547</v>
+      </c>
+      <c r="O159" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" t="s">
+        <v>551</v>
+      </c>
+      <c r="F160" t="s">
+        <v>587</v>
+      </c>
+      <c r="J160" t="s">
+        <v>549</v>
+      </c>
+      <c r="O160" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" t="s">
+        <v>588</v>
+      </c>
+      <c r="J161" t="s">
+        <v>577</v>
+      </c>
+      <c r="O161" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="F162" t="s">
+        <v>612</v>
+      </c>
+      <c r="J162" t="s">
+        <v>16</v>
+      </c>
+      <c r="O162" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="F163" t="s">
+        <v>422</v>
+      </c>
+      <c r="O163" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="F164" t="s">
+        <v>613</v>
+      </c>
+      <c r="O164" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="F165" t="s">
+        <v>614</v>
+      </c>
+      <c r="O165" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="F166" t="s">
+        <v>615</v>
+      </c>
+      <c r="O166" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="F167" t="s">
+        <v>393</v>
+      </c>
+      <c r="O167" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="F168" t="s">
+        <v>593</v>
+      </c>
+      <c r="O168" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="F169" t="s">
+        <v>594</v>
+      </c>
+      <c r="O169" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="F170" t="s">
+        <v>32</v>
+      </c>
+      <c r="O170" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="F171" t="s">
+        <v>595</v>
+      </c>
+      <c r="O171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="F172" t="s">
+        <v>596</v>
+      </c>
+      <c r="O172" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="F173" t="s">
+        <v>597</v>
+      </c>
+      <c r="O173" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="F174" t="s">
+        <v>238</v>
+      </c>
+      <c r="O174" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="O175" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
+      <c r="A183" t="s">
+        <v>554</v>
+      </c>
+      <c r="F183" t="s">
+        <v>33</v>
+      </c>
+      <c r="J183" t="s">
+        <v>9</v>
+      </c>
+      <c r="O183" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" t="s">
+        <v>32</v>
+      </c>
+      <c r="J184" t="s">
+        <v>10</v>
+      </c>
+      <c r="O184" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" t="s">
+        <v>319</v>
+      </c>
+      <c r="F185" t="s">
+        <v>581</v>
+      </c>
+      <c r="J185" t="s">
+        <v>347</v>
+      </c>
+      <c r="O185" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" t="s">
+        <v>34</v>
+      </c>
+      <c r="J186" t="s">
+        <v>201</v>
+      </c>
+      <c r="O186" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" t="s">
+        <v>201</v>
+      </c>
+      <c r="F187" t="s">
+        <v>32</v>
+      </c>
+      <c r="J187" t="s">
+        <v>542</v>
+      </c>
+      <c r="O187" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
+      <c r="A188" t="s">
+        <v>347</v>
+      </c>
+      <c r="F188" t="s">
+        <v>582</v>
+      </c>
+      <c r="J188" t="s">
+        <v>202</v>
+      </c>
+      <c r="O188" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="A189" t="s">
+        <v>559</v>
+      </c>
+      <c r="F189" t="s">
+        <v>388</v>
+      </c>
+      <c r="J189" t="s">
+        <v>627</v>
+      </c>
+      <c r="O189" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
+      <c r="A190" t="s">
+        <v>556</v>
+      </c>
+      <c r="F190" t="s">
+        <v>609</v>
+      </c>
+      <c r="J190" t="s">
+        <v>645</v>
+      </c>
+      <c r="O190" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="A191" t="s">
+        <v>576</v>
+      </c>
+      <c r="F191" t="s">
+        <v>32</v>
+      </c>
+      <c r="J191" t="s">
+        <v>319</v>
+      </c>
+      <c r="O191" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
+      <c r="A192" t="s">
+        <v>561</v>
+      </c>
+      <c r="F192" t="s">
+        <v>616</v>
+      </c>
+      <c r="J192" t="s">
+        <v>546</v>
+      </c>
+      <c r="O192" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
+      <c r="A193" t="s">
+        <v>562</v>
+      </c>
+      <c r="F193" t="s">
+        <v>585</v>
+      </c>
+      <c r="J193" t="s">
+        <v>548</v>
+      </c>
+      <c r="O193" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
+      <c r="A194" t="s">
+        <v>577</v>
+      </c>
+      <c r="F194" t="s">
+        <v>611</v>
+      </c>
+      <c r="J194" t="s">
+        <v>547</v>
+      </c>
+      <c r="O194" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
+      <c r="A195" t="s">
+        <v>578</v>
+      </c>
+      <c r="F195" t="s">
+        <v>32</v>
+      </c>
+      <c r="J195" t="s">
+        <v>549</v>
+      </c>
+      <c r="O195" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
+      <c r="A196" t="s">
+        <v>202</v>
+      </c>
+      <c r="F196" t="s">
+        <v>587</v>
+      </c>
+      <c r="J196" t="s">
+        <v>129</v>
+      </c>
+      <c r="O196" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
+      <c r="A197" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197" t="s">
+        <v>588</v>
+      </c>
+      <c r="J197" t="s">
+        <v>577</v>
+      </c>
+      <c r="O197" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
+      <c r="F198" t="s">
+        <v>617</v>
+      </c>
+      <c r="J198" t="s">
+        <v>16</v>
+      </c>
+      <c r="O198" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
+      <c r="F199" t="s">
+        <v>422</v>
+      </c>
+      <c r="O199" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="F200" t="s">
+        <v>618</v>
+      </c>
+      <c r="O200" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
+      <c r="F201" t="s">
+        <v>619</v>
+      </c>
+      <c r="O201" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="F202" t="s">
+        <v>620</v>
+      </c>
+      <c r="O202" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="F203" t="s">
+        <v>393</v>
+      </c>
+      <c r="O203" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="F204" t="s">
+        <v>593</v>
+      </c>
+      <c r="O204" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
+      <c r="F205" t="s">
+        <v>621</v>
+      </c>
+      <c r="O205" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15">
+      <c r="F206" t="s">
+        <v>595</v>
+      </c>
+      <c r="O206" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15">
+      <c r="F207" t="s">
+        <v>596</v>
+      </c>
+      <c r="O207" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15">
+      <c r="F208" t="s">
+        <v>597</v>
+      </c>
+      <c r="O208" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
+      <c r="F209" t="s">
+        <v>238</v>
+      </c>
+      <c r="O209" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
+      <c r="F210" t="s">
+        <v>238</v>
+      </c>
+      <c r="O210" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15">
+      <c r="F211" t="s">
+        <v>237</v>
+      </c>
+      <c r="O211" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219" t="s">
+        <v>554</v>
+      </c>
+      <c r="F219" t="s">
+        <v>33</v>
+      </c>
+      <c r="J219" t="s">
+        <v>646</v>
+      </c>
+      <c r="O219" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="A220" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" t="s">
+        <v>32</v>
+      </c>
+      <c r="J220" t="s">
+        <v>9</v>
+      </c>
+      <c r="O220" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" t="s">
+        <v>581</v>
+      </c>
+      <c r="J221" t="s">
+        <v>319</v>
+      </c>
+      <c r="O221" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15">
+      <c r="A222" t="s">
+        <v>347</v>
+      </c>
+      <c r="F222" t="s">
+        <v>34</v>
+      </c>
+      <c r="J222" t="s">
+        <v>10</v>
+      </c>
+      <c r="O222" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="A223" t="s">
+        <v>201</v>
+      </c>
+      <c r="F223" t="s">
+        <v>32</v>
+      </c>
+      <c r="J223" t="s">
+        <v>201</v>
+      </c>
+      <c r="O223" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="A224" t="s">
+        <v>556</v>
+      </c>
+      <c r="F224" t="s">
+        <v>582</v>
+      </c>
+      <c r="J224" t="s">
+        <v>347</v>
+      </c>
+      <c r="O224" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225" t="s">
+        <v>579</v>
+      </c>
+      <c r="F225" t="s">
+        <v>388</v>
+      </c>
+      <c r="J225" t="s">
+        <v>546</v>
+      </c>
+      <c r="O225" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226" t="s">
+        <v>580</v>
+      </c>
+      <c r="F226" t="s">
+        <v>609</v>
+      </c>
+      <c r="J226" t="s">
+        <v>547</v>
+      </c>
+      <c r="O226" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15">
+      <c r="A227" t="s">
+        <v>202</v>
+      </c>
+      <c r="F227" t="s">
+        <v>32</v>
+      </c>
+      <c r="J227" t="s">
+        <v>548</v>
+      </c>
+      <c r="O227" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15">
+      <c r="A228" t="s">
+        <v>319</v>
+      </c>
+      <c r="F228" t="s">
+        <v>622</v>
+      </c>
+      <c r="J228" t="s">
+        <v>542</v>
+      </c>
+      <c r="O228" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
+      <c r="A229" t="s">
+        <v>559</v>
+      </c>
+      <c r="F229" t="s">
+        <v>585</v>
+      </c>
+      <c r="J229" t="s">
+        <v>549</v>
+      </c>
+      <c r="O229" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="A230" t="s">
+        <v>561</v>
+      </c>
+      <c r="F230" t="s">
+        <v>611</v>
+      </c>
+      <c r="J230" t="s">
+        <v>647</v>
+      </c>
+      <c r="O230" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15">
+      <c r="A231" t="s">
+        <v>562</v>
+      </c>
+      <c r="F231" t="s">
+        <v>32</v>
+      </c>
+      <c r="J231" t="s">
+        <v>551</v>
+      </c>
+      <c r="O231" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15">
+      <c r="A232" t="s">
+        <v>551</v>
+      </c>
+      <c r="F232" t="s">
+        <v>587</v>
+      </c>
+      <c r="J232" t="s">
+        <v>202</v>
+      </c>
+      <c r="O232" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15">
+      <c r="A233" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233" t="s">
+        <v>588</v>
+      </c>
+      <c r="J233" t="s">
+        <v>16</v>
+      </c>
+      <c r="O233" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
+      <c r="F234" t="s">
+        <v>623</v>
+      </c>
+      <c r="O234" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15">
+      <c r="F235" t="s">
+        <v>422</v>
+      </c>
+      <c r="O235" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
+      <c r="F236" t="s">
+        <v>624</v>
+      </c>
+      <c r="O236" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15">
+      <c r="F237" t="s">
+        <v>625</v>
+      </c>
+      <c r="O237" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15">
+      <c r="F238" t="s">
+        <v>626</v>
+      </c>
+      <c r="O238" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15">
+      <c r="F239" t="s">
+        <v>393</v>
+      </c>
+      <c r="O239" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15">
+      <c r="F240" t="s">
+        <v>593</v>
+      </c>
+      <c r="O240" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="241" spans="6:15">
+      <c r="F241" t="s">
+        <v>594</v>
+      </c>
+      <c r="O241" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="242" spans="6:15">
+      <c r="F242" t="s">
+        <v>32</v>
+      </c>
+      <c r="O242" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="243" spans="6:15">
+      <c r="F243" t="s">
+        <v>595</v>
+      </c>
+      <c r="O243" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="244" spans="6:15">
+      <c r="F244" t="s">
+        <v>596</v>
+      </c>
+      <c r="O244" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="245" spans="6:15">
+      <c r="F245" t="s">
+        <v>597</v>
+      </c>
+      <c r="O245" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="246" spans="6:15">
+      <c r="F246" t="s">
+        <v>238</v>
+      </c>
+      <c r="O246" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1">
+      <c r="A1003" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1">
+      <c r="A1006" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1">
+      <c r="A1011" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1">
+      <c r="A1013" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1">
+      <c r="A1014" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1">
+      <c r="A1016" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1">
+      <c r="A1018" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1">
+      <c r="A1023" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1">
+      <c r="A1028" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1">
+      <c r="A1029" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1">
+      <c r="A1031" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1">
+      <c r="A1033" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1">
+      <c r="A1034" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1">
+      <c r="A1036" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1">
+      <c r="A1038" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1">
+      <c r="A1039" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1">
+      <c r="A1041" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1">
+      <c r="A1043" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1">
+      <c r="A1044" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1">
+      <c r="A1046" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1">
+      <c r="A1048" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1">
+      <c r="A1049" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1">
+      <c r="A1051" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1">
+      <c r="A1053" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1">
+      <c r="A1054" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1">
+      <c r="A1056" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1">
+      <c r="A1058" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1">
+      <c r="A1059" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1">
+      <c r="A1060" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
